--- a/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
@@ -20,6 +20,7 @@
     <sheet name="装备属性界面" sheetId="6" r:id="rId6"/>
     <sheet name="装备列表界面" sheetId="7" r:id="rId7"/>
     <sheet name="装备打造界面" sheetId="8" r:id="rId8"/>
+    <sheet name="宝石镶嵌界面" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="2307">
   <si>
     <t>caseID</t>
   </si>
@@ -7321,10 +7322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币1234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示为123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7345,10 +7342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示为123,456,789,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看添加金币按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8158,6 +8151,921 @@
   </si>
   <si>
     <t>新增装备打造界面测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石界面测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在装备详情界面点击【镶嵌】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出宝石镶嵌界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看装备镶嵌界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面包含装备信息区、宝石槽信息区、开孔消耗区和【开孔】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看装备信息区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备信息区在界面上方标签页下，装备信息区包含装备icon、装备名称、装备战力信息和提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从装备A点击进入镶嵌界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从装备B点击进入镶嵌界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备品质</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够镶嵌宝石最大个数</t>
+  </si>
+  <si>
+    <t>白装</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿装</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝装</t>
+  </si>
+  <si>
+    <t>紫装</t>
+  </si>
+  <si>
+    <t>橙装</t>
+  </si>
+  <si>
+    <t>红装</t>
+  </si>
+  <si>
+    <t>白装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝装-未开孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝装-已开孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫装-开1孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫装-开2孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙装开2孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙装开3孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红装开2孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红装开4孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石槽信息区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用装备通用icon信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在装备信息区域左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示装备Aicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示装备Bicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不弹出装备tips界面，不响应点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在装备icon右侧第一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字内容显示当前选中装备的装备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示装备A名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示装备B名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示装备C名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在装备icon右侧第二行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“战力：战力具体数值”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力值与当前选中装备一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在装备信息区域右侧第二行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据装备品质开启宝石槽数量是否满显示对应信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息显示文字“宝石槽已全开”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息显示文字“宝石槽已全开”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽信息区在装备信息区下方，界面中间，由宝石槽列表构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石槽信息区显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值区域显示宝石槽条目1行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值区域显示宝石槽条目2行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值区域显示宝石槽条目3行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值区域显示宝石槽条目4行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石槽条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔未未镶嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已镶嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽条目样式为未开孔样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽条目样式为已开孔未镶嵌样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽条目样式为已镶嵌样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看未开孔宝石槽条目显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开孔宝石槽条目包括未开孔宝石槽图标和提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看未开孔宝石槽图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在宝石槽条目左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在宝石槽图标右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“点击开孔有机会开启宝石槽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看已开孔未镶嵌宝石槽条目显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开孔未镶嵌宝石槽条目包括宝石未镶嵌状态图标和提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石未镶嵌状态图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为开孔的可镶嵌宝石类型形状图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看图标样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔后可镶嵌宝石类型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔后可镶嵌宝石类型2</t>
+  </si>
+  <si>
+    <t>开孔后可镶嵌宝石类型3</t>
+  </si>
+  <si>
+    <t>显示宝石类型1的形状的未镶嵌图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石类型2的形状的未镶嵌图标</t>
+  </si>
+  <si>
+    <t>显示宝石类型3的形状的未镶嵌图标</t>
+  </si>
+  <si>
+    <t>查看已镶嵌宝石槽条目显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已镶嵌宝石槽条目包括宝石图标、宝石名称、宝石属性和【卸下】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石A图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石B图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石C图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石A名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石B名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宝石C名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【卸下】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在宝石槽条目第一行右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“卸下”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石界面-左侧显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看开孔消耗材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料区域包含需求金币、需求道具、提示信息和【开孔】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息显示在消耗材料下方居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字内容为：开孔将随机获得“1—装备品质限定最大槽数”个宝石槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式-不满足可开孔操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式-满足可开孔操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在界面下方，居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“开孔”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【开孔】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【开孔】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足可开孔操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出二级确认界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可点击，点击无反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足可开孔操作-已镶嵌宝石（不管几个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足可开孔操作-以上两项同时存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足可开孔操作-未镶嵌宝石且没有达到品质对应最大开孔数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足可开孔操作-开孔没有达到品质对应最大开孔数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行开孔逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看开孔二级确认界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屏幕中间弹出确认界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看确认界面内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含提示信息、【取消】按钮、【确定】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提示信息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定开孔么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二行中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*开孔将随机开启不同数量的宝石槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三行中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若已镶嵌宝石，宝石将全部退还到背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【取消】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在界面下方左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“取消”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【确定】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在界面下方右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“确定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔逻辑测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在装备镶嵌宝石界面（右）界面中点击宝石槽列表任意位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宠物详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看镶嵌宝石界面（右）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情界面变为镶嵌宝石界面（左）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石界面（右）变为宝石列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看镶嵌宝石界面（左）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面包含装备信息区、宝石槽信息区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽被选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽未选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石槽选关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从宝石镶嵌界面（右）点击宝石A进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认选中宝石A所在宝石槽条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从宝石想抢界面（右）点击宝石B进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认选中宝石B所在宝石槽条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽点击规则测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击宝石槽非按钮区域，查看点击结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽未开孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽开孔未镶嵌-右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽开孔未镶嵌-左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽已镶嵌-右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽已镶嵌-左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽不响应点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后打开界面“装备镶嵌宝石界面（左）+宝石列表界面（右）”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧会切换为对应选中宝石槽的宝石列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【卸下】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前宝石被卸下，宝石槽变为开孔未镶嵌状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【卸下】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石被卸下，宝石槽变为开孔未镶嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石槽条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看右侧宝石列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表刷新，被卸下宝石在宝石列表中出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【开孔】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔按钮不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【取消】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级界面关闭，不执行开孔操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【确定】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级界面关闭，执行开孔逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【开孔】按钮，查看开孔个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备一定出现一个宝石孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备有各50%概率出现1孔和2孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备有1/3概率出现1孔、2孔和3孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备有25%概率出现1孔、2孔、3孔和4孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看开孔宝石形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开出的每个孔的宝石形状从所有宝石形状中随机一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在装备镶嵌界面（右）点击已开孔宝石槽条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面右侧出现宝石列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表界面由宝石列表组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击类型A宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击类型B宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表界面中显示所有类型A宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表界面中显示所有类型B宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石列表项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表项包含宝石图标、宝石名称、宝石属性、【镶嵌】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宝石附加属性数值显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【镶嵌】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“镶嵌”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合道具icon通用规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在宝石列表界面点击【镶嵌】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选宝石堆叠数量为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选宝石堆叠数量为x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表项消失，下方宝石列表向上移动补充列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石列表项宝石icon数量变为x-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看装备镶嵌界面（左）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择条目A后点的镶嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择条目B后点的镶嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目A变为宝石镶嵌状态条目，其他条目状态不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目B变为宝石镶嵌状态条目，其他条目状态不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增宝石镶嵌界面测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8165,7 +9073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8258,6 +9166,21 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -8376,7 +9299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8595,6 +9518,14 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8607,7 +9538,115 @@
     <cellStyle name="常规_目录" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="205">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -11637,13 +12676,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>695299</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>209524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11675,13 +12714,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>711201</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11713,7 +12752,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="254001" cy="190500"/>
@@ -11742,6 +12781,351 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488673</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8878956" y="10916481"/>
+          <a:ext cx="265044" cy="244656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419048</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8390283" y="16971065"/>
+          <a:ext cx="419048" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393838</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>48557</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12829761" y="25063174"/>
+          <a:ext cx="3209925" cy="1936992"/>
+          <a:chOff x="10077450" y="67823384"/>
+          <a:chExt cx="3216551" cy="1914629"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10077450" y="67823384"/>
+            <a:ext cx="3216551" cy="1914629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10212456" y="68182435"/>
+            <a:ext cx="2948609" cy="323810"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488673</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>173938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265044" cy="244656"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8878956" y="10916481"/>
+          <a:ext cx="265044" cy="244656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419048" cy="180952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8390283" y="16971065"/>
+          <a:ext cx="419048" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1200979</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>1105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8390284" y="37743848"/>
+          <a:ext cx="1200978" cy="208170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1184413</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>202140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8390283" y="37536783"/>
+          <a:ext cx="1184413" cy="202140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428411</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8390283" y="53108087"/>
+          <a:ext cx="428411" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12011,7 +13395,7 @@
   <dimension ref="B21:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12152,7 +13536,7 @@
         <v>42270</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>1079</v>
@@ -12165,11 +13549,21 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="31"/>
+      <c r="B29" s="12">
+        <v>42271</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="F29" s="31">
+        <v>3976</v>
+      </c>
     </row>
     <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="12"/>
@@ -12236,9 +13630,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -14031,42 +15425,42 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="192" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="190" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="13" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J4 H6:J10 H5 J5 H11 J11 H12:J49 H51:J52 H50 J50 H54:J56 H53 J53 J57 H58:J67 J68:J72 H73:J131 H132 J132 H59:H68 H133:J1048576">
-    <cfRule type="cellIs" dxfId="188" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="186" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H72">
-    <cfRule type="cellIs" dxfId="184" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14120,9 +15514,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -16998,106 +18392,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H136:H1048576 H10:H38 H43:H49 H64:H66 H56:H59 H87:H132">
-    <cfRule type="cellIs" dxfId="182" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="180" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="178" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="27" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H8 H68:H77 H82">
-    <cfRule type="cellIs" dxfId="176" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="174" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H86">
-    <cfRule type="cellIs" dxfId="172" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="170" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H135">
-    <cfRule type="cellIs" dxfId="168" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H41">
-    <cfRule type="cellIs" dxfId="166" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="164" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H62">
-    <cfRule type="cellIs" dxfId="162" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="160" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H81">
-    <cfRule type="cellIs" dxfId="158" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17154,9 +18548,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -19330,210 +20724,210 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H73:H129">
-    <cfRule type="cellIs" dxfId="156" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="154" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="152" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137 H144 H151 H164 H171:H174 H181 H188 H195:H1048576 H153 H155 H157">
-    <cfRule type="cellIs" dxfId="150" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H8 H10:H56 H58:H72">
-    <cfRule type="cellIs" dxfId="148" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="146" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="144" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="142" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131:H136">
-    <cfRule type="cellIs" dxfId="140" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H143">
-    <cfRule type="cellIs" dxfId="138" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146:H150">
-    <cfRule type="cellIs" dxfId="136" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:H163">
-    <cfRule type="cellIs" dxfId="134" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166:H170">
-    <cfRule type="cellIs" dxfId="132" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:H180">
-    <cfRule type="cellIs" dxfId="130" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H183:H187">
-    <cfRule type="cellIs" dxfId="128" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:H194">
-    <cfRule type="cellIs" dxfId="126" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="124" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="cellIs" dxfId="122" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="120" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="118" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H175">
-    <cfRule type="cellIs" dxfId="116" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182">
-    <cfRule type="cellIs" dxfId="114" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="112" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="110" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H154">
-    <cfRule type="cellIs" dxfId="108" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156">
-    <cfRule type="cellIs" dxfId="106" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19582,9 +20976,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -21445,119 +22839,119 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H75:H90 H92:H99 H101:H107 H109:H132">
-    <cfRule type="cellIs" dxfId="104" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="102" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="100" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="27" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162">
-    <cfRule type="notContainsBlanks" dxfId="98" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="110" priority="25">
       <formula>LEN(TRIM(G162))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H1048576">
-    <cfRule type="cellIs" dxfId="97" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H8 H10:H11 H13:H41 H44:H58 H60:H70">
-    <cfRule type="cellIs" dxfId="95" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="93" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H74">
-    <cfRule type="cellIs" dxfId="91" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="89" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="87" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="85" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="81" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21594,10 +22988,10 @@
   <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84:G92"/>
+      <selection pane="bottomRight" activeCell="E184" sqref="E184:G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -21620,9 +23014,9 @@
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -24937,178 +26331,178 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H15:J19 H28:J34 H27 J27 H21:J26 H20 J20 H36:J41 J35 H42 J42 H43:J44 H46:J58 H45 J45 H59 J59 H163:J164 H168:J174 I165:J167 J175:J176 H177:J202 J162 H204:J210 H203 J203 H219:J227 H218 J218 H216:J217 H215 J215 H212:J214 H211 J211">
-    <cfRule type="cellIs" dxfId="75" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="73" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J4 H6:J9 H5 J5 H14 J14 H61:J62 H60 J60 H66:J66 J63 J67 H68:J68 J78:J82 H83:J84 H78 H12:J13 H230:J1048576 I64:J65 H63:H65 H70:J77 H69 J69 H93:J97 H85:H92 J85:J92 H99:J99 H98 J98 H101:J104 H100 J100 J107:J161 J105 H106:J106">
-    <cfRule type="cellIs" dxfId="71" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="69" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H82">
-    <cfRule type="cellIs" dxfId="67" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J10">
-    <cfRule type="cellIs" dxfId="65" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H228:J229">
-    <cfRule type="cellIs" dxfId="63" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:J11">
-    <cfRule type="cellIs" dxfId="61" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="59" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:I111 H113:I113 H112 H115:I116 H114">
-    <cfRule type="cellIs" dxfId="55" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:I125 H127:I127 H126 H129:I130 H128">
-    <cfRule type="cellIs" dxfId="53" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135:I139 H141:I141 H140 H143:I144 H142">
-    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149:I153 H155:I155 H154 H157:I158 H156">
-    <cfRule type="cellIs" dxfId="49" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="47" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117:I118 H120:I120">
-    <cfRule type="cellIs" dxfId="45" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="43" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131:I132 H134:I134">
-    <cfRule type="cellIs" dxfId="41" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="39" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:I146 H148:I148">
-    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147">
-    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:I160 H162:I162">
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25153,10 +26547,10 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H92" sqref="H92"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -25179,9 +26573,9 @@
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -26895,50 +28289,50 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H61 H90:J135 I89:J89 H88">
-    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J4 H6:J8 H5 J5 J11 H14:J20 H55:J56 H58:J60 H57 J57 J61 H62:J69 J72:J76 H77:J83 H136 J136 H72 H137:J1048576 I12:J13 I9:J10 H9:H19 H22:J33 H21 J21 H35:J38 H34 J34 H40:J49 H39 J39 H51:J52 J50 H53:H54 J53:J54 H71:J71 H70 J70 H85:J87 H84 J84 J88">
-    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H76">
-    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26959,13 +28353,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -26988,9 +28382,9 @@
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -27034,7 +28428,7 @@
         <v>1836</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D4" s="53">
         <v>1</v>
@@ -27193,10 +28587,10 @@
       <c r="D15" s="53"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>1916</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>1918</v>
       </c>
       <c r="H15" s="53"/>
     </row>
@@ -27206,10 +28600,10 @@
       <c r="D16" s="53"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>1917</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>1919</v>
       </c>
       <c r="H16" s="53"/>
     </row>
@@ -27237,7 +28631,7 @@
         <v>1863</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H18" s="53"/>
     </row>
@@ -27250,7 +28644,7 @@
         <v>1864</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="H19" s="53"/>
     </row>
@@ -27263,7 +28657,7 @@
         <v>1865</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H20" s="53"/>
     </row>
@@ -27276,7 +28670,7 @@
         <v>1866</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H21" s="53"/>
     </row>
@@ -27289,7 +28683,7 @@
         <v>1867</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H22" s="53"/>
     </row>
@@ -27297,12 +28691,14 @@
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>1873</v>
+      </c>
       <c r="F23" s="23" t="s">
-        <v>1868</v>
+        <v>1874</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="H23" s="53"/>
     </row>
@@ -27310,57 +28706,55 @@
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="23" t="s">
         <v>1875</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>1876</v>
-      </c>
       <c r="G24" s="22" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H24" s="53"/>
     </row>
     <row r="25" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="53">
+        <v>5</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>1878</v>
+      </c>
       <c r="F25" s="23" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H25" s="53"/>
     </row>
-    <row r="26" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="53">
-        <v>5</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23" t="s">
         <v>1880</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>1881</v>
-      </c>
       <c r="G26" s="22" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H26" s="53"/>
     </row>
-    <row r="27" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="22"/>
       <c r="F27" s="23" t="s">
-        <v>1882</v>
+        <v>1914</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>1884</v>
+        <v>1916</v>
       </c>
       <c r="H27" s="53"/>
     </row>
@@ -27368,11 +28762,12 @@
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
-      <c r="E28" s="22" t="s">
-        <v>1885</v>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23" t="s">
+        <v>1915</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>1886</v>
+        <v>1917</v>
       </c>
       <c r="H28" s="53"/>
     </row>
@@ -27380,12 +28775,11 @@
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23" t="s">
-        <v>1887</v>
+      <c r="E29" s="22" t="s">
+        <v>1883</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="H29" s="53"/>
     </row>
@@ -27395,10 +28789,10 @@
       <c r="D30" s="53"/>
       <c r="E30" s="22"/>
       <c r="F30" s="23" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="H30" s="53"/>
     </row>
@@ -27406,11 +28800,12 @@
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
-      <c r="E31" s="22" t="s">
-        <v>1891</v>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23" t="s">
+        <v>1886</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="H31" s="53"/>
     </row>
@@ -27418,12 +28813,11 @@
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23" t="s">
-        <v>1916</v>
+      <c r="E32" s="22" t="s">
+        <v>1889</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>1918</v>
+        <v>1890</v>
       </c>
       <c r="H32" s="53"/>
     </row>
@@ -27431,12 +28825,11 @@
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23" t="s">
-        <v>1917</v>
+      <c r="E33" s="22" t="s">
+        <v>1892</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>1919</v>
+        <v>1893</v>
       </c>
       <c r="H33" s="53"/>
     </row>
@@ -27444,11 +28837,12 @@
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="22"/>
+      <c r="F34" s="23" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>1894</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>1895</v>
       </c>
       <c r="H34" s="53"/>
     </row>
@@ -27458,10 +28852,10 @@
       <c r="D35" s="53"/>
       <c r="E35" s="22"/>
       <c r="F35" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H35" s="53"/>
     </row>
@@ -27469,11 +28863,13 @@
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>1896</v>
+      </c>
       <c r="F36" s="23" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G36" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G36" s="23" t="s">
         <v>1897</v>
       </c>
       <c r="H36" s="53"/>
@@ -27482,14 +28878,12 @@
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="22" t="s">
-        <v>1898</v>
-      </c>
+      <c r="E37" s="22"/>
       <c r="F37" s="23" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>1899</v>
+        <v>1421</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>1252</v>
       </c>
       <c r="H37" s="53"/>
     </row>
@@ -27499,10 +28893,10 @@
       <c r="D38" s="53"/>
       <c r="E38" s="22"/>
       <c r="F38" s="23" t="s">
-        <v>1421</v>
+        <v>1914</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>1252</v>
+        <v>1916</v>
       </c>
       <c r="H38" s="53"/>
     </row>
@@ -27512,10 +28906,10 @@
       <c r="D39" s="53"/>
       <c r="E39" s="22"/>
       <c r="F39" s="23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H39" s="53"/>
     </row>
@@ -27525,10 +28919,10 @@
       <c r="D40" s="53"/>
       <c r="E40" s="22"/>
       <c r="F40" s="23" t="s">
-        <v>1917</v>
+        <v>1746</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>1919</v>
+        <v>1749</v>
       </c>
       <c r="H40" s="53"/>
     </row>
@@ -27538,7 +28932,7 @@
       <c r="D41" s="53"/>
       <c r="E41" s="22"/>
       <c r="F41" s="23" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>1749</v>
@@ -27549,12 +28943,14 @@
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
-      <c r="E42" s="22"/>
+      <c r="E42" s="22" t="s">
+        <v>1759</v>
+      </c>
       <c r="F42" s="23" t="s">
-        <v>1747</v>
+        <v>1760</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>1749</v>
+        <v>1761</v>
       </c>
       <c r="H42" s="53"/>
     </row>
@@ -27562,57 +28958,54 @@
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
-      <c r="E43" s="22" t="s">
-        <v>1759</v>
-      </c>
+      <c r="E43" s="22"/>
       <c r="F43" s="23" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H43" s="53"/>
     </row>
     <row r="44" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="22"/>
+      <c r="D44" s="53">
+        <v>6</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>1898</v>
+      </c>
       <c r="F44" s="23" t="s">
-        <v>1762</v>
+        <v>1879</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>1763</v>
+        <v>1899</v>
       </c>
       <c r="H44" s="53"/>
     </row>
-    <row r="45" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
-      <c r="D45" s="53">
-        <v>6</v>
-      </c>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>1900</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>1901</v>
-      </c>
       <c r="H45" s="53"/>
     </row>
-    <row r="46" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23" t="s">
-        <v>1882</v>
+      <c r="E46" s="22" t="s">
+        <v>1883</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>1902</v>
+        <v>1884</v>
       </c>
       <c r="H46" s="53"/>
     </row>
@@ -27620,11 +29013,12 @@
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="22"/>
+      <c r="F47" s="23" t="s">
         <v>1885</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>1886</v>
+        <v>1901</v>
       </c>
       <c r="H47" s="53"/>
     </row>
@@ -27634,10 +29028,10 @@
       <c r="D48" s="53"/>
       <c r="E48" s="22"/>
       <c r="F48" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H48" s="53"/>
     </row>
@@ -27645,12 +29039,11 @@
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23" t="s">
-        <v>1888</v>
+      <c r="E49" s="22" t="s">
+        <v>1889</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>1904</v>
+        <v>1890</v>
       </c>
       <c r="H49" s="53"/>
     </row>
@@ -27659,10 +29052,10 @@
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
       <c r="E50" s="22" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>1892</v>
+        <v>1903</v>
       </c>
       <c r="H50" s="53"/>
     </row>
@@ -27670,11 +29063,12 @@
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
-      <c r="E51" s="22" t="s">
-        <v>1894</v>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23" t="s">
+        <v>1914</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>1905</v>
+        <v>1916</v>
       </c>
       <c r="H51" s="53"/>
     </row>
@@ -27684,10 +29078,10 @@
       <c r="D52" s="53"/>
       <c r="E52" s="22"/>
       <c r="F52" s="23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H52" s="53"/>
     </row>
@@ -27697,10 +29091,10 @@
       <c r="D53" s="53"/>
       <c r="E53" s="22"/>
       <c r="F53" s="23" t="s">
-        <v>1917</v>
+        <v>1885</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="H53" s="53"/>
     </row>
@@ -27710,10 +29104,10 @@
       <c r="D54" s="53"/>
       <c r="E54" s="22"/>
       <c r="F54" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H54" s="53"/>
     </row>
@@ -27721,40 +29115,40 @@
       <c r="B55" s="53"/>
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
-      <c r="E55" s="22"/>
+      <c r="E55" s="22" t="s">
+        <v>1918</v>
+      </c>
       <c r="F55" s="23" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>1907</v>
+        <v>1331</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>1897</v>
       </c>
       <c r="H55" s="53"/>
     </row>
-    <row r="56" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
-      <c r="E56" s="22" t="s">
-        <v>1920</v>
-      </c>
+      <c r="E56" s="22"/>
       <c r="F56" s="23" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>1899</v>
+        <v>1421</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>1919</v>
       </c>
       <c r="H56" s="53"/>
     </row>
-    <row r="57" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="53"/>
       <c r="C57" s="53"/>
       <c r="D57" s="53"/>
       <c r="E57" s="22"/>
       <c r="F57" s="23" t="s">
-        <v>1421</v>
+        <v>1914</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="H57" s="53"/>
     </row>
@@ -27764,10 +29158,10 @@
       <c r="D58" s="53"/>
       <c r="E58" s="22"/>
       <c r="F58" s="23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H58" s="53"/>
     </row>
@@ -27777,10 +29171,10 @@
       <c r="D59" s="53"/>
       <c r="E59" s="22"/>
       <c r="F59" s="23" t="s">
-        <v>1917</v>
+        <v>1906</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>1919</v>
+        <v>1907</v>
       </c>
       <c r="H59" s="53"/>
     </row>
@@ -27790,10 +29184,10 @@
       <c r="D60" s="53"/>
       <c r="E60" s="22"/>
       <c r="F60" s="23" t="s">
-        <v>1908</v>
+        <v>1747</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>1909</v>
+        <v>1749</v>
       </c>
       <c r="H60" s="53"/>
     </row>
@@ -27801,12 +29195,11 @@
       <c r="B61" s="53"/>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23" t="s">
-        <v>1747</v>
+      <c r="E61" s="22" t="s">
+        <v>1920</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>1749</v>
+        <v>1921</v>
       </c>
       <c r="H61" s="53"/>
     </row>
@@ -27817,8 +29210,11 @@
       <c r="E62" s="22" t="s">
         <v>1922</v>
       </c>
+      <c r="F62" s="23" t="s">
+        <v>1923</v>
+      </c>
       <c r="G62" s="22" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="H62" s="53"/>
     </row>
@@ -27826,9 +29222,7 @@
       <c r="B63" s="53"/>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
-      <c r="E63" s="22" t="s">
-        <v>1924</v>
-      </c>
+      <c r="E63" s="22"/>
       <c r="F63" s="23" t="s">
         <v>1925</v>
       </c>
@@ -27837,75 +29231,75 @@
       </c>
       <c r="H63" s="53"/>
     </row>
-    <row r="64" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B64" s="53"/>
       <c r="C64" s="53"/>
       <c r="D64" s="53"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23" t="s">
-        <v>1927</v>
+      <c r="E64" s="22" t="s">
+        <v>1908</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>1928</v>
+        <v>1909</v>
       </c>
       <c r="H64" s="53"/>
     </row>
-    <row r="65" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
+      <c r="D65" s="53">
+        <v>7</v>
+      </c>
       <c r="E65" s="22" t="s">
         <v>1910</v>
       </c>
+      <c r="F65" s="23" t="s">
+        <v>1911</v>
+      </c>
       <c r="G65" s="22" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="H65" s="53"/>
     </row>
     <row r="66" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="53"/>
       <c r="C66" s="53"/>
-      <c r="D66" s="53">
-        <v>7</v>
-      </c>
-      <c r="E66" s="22" t="s">
+      <c r="D66" s="53"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23" t="s">
         <v>1912</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>1913</v>
-      </c>
       <c r="G66" s="22" t="s">
-        <v>1915</v>
+        <v>1877</v>
       </c>
       <c r="H66" s="53"/>
     </row>
     <row r="67" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="53"/>
       <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="22"/>
+      <c r="D67" s="53">
+        <v>8</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>1927</v>
+      </c>
       <c r="F67" s="23" t="s">
-        <v>1914</v>
+        <v>1856</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>1879</v>
+        <v>1929</v>
       </c>
       <c r="H67" s="53"/>
     </row>
     <row r="68" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="53"/>
       <c r="C68" s="53"/>
-      <c r="D68" s="53">
-        <v>8</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>1929</v>
-      </c>
+      <c r="D68" s="53"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="23" t="s">
-        <v>1856</v>
+        <v>1928</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="H68" s="53"/>
     </row>
@@ -27913,9 +29307,8 @@
       <c r="B69" s="53"/>
       <c r="C69" s="53"/>
       <c r="D69" s="53"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23" t="s">
-        <v>1930</v>
+      <c r="E69" s="22" t="s">
+        <v>1931</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>1932</v>
@@ -27926,11 +29319,12 @@
       <c r="B70" s="53"/>
       <c r="C70" s="53"/>
       <c r="D70" s="53"/>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="22"/>
+      <c r="F70" s="23" t="s">
         <v>1933</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="H70" s="53"/>
     </row>
@@ -27940,10 +29334,10 @@
       <c r="D71" s="53"/>
       <c r="E71" s="22"/>
       <c r="F71" s="23" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H71" s="53"/>
     </row>
@@ -27953,31 +29347,31 @@
       <c r="D72" s="53"/>
       <c r="E72" s="22"/>
       <c r="F72" s="23" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G72" s="22" t="s">
         <v>1936</v>
       </c>
-      <c r="G72" s="22" t="s">
-        <v>1940</v>
-      </c>
       <c r="H72" s="53"/>
     </row>
-    <row r="73" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>
       <c r="D73" s="53"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23" t="s">
-        <v>1937</v>
+      <c r="E73" s="22" t="s">
+        <v>1939</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="H73" s="53"/>
     </row>
-    <row r="74" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="53"/>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="22"/>
+      <c r="F74" s="23" t="s">
         <v>1941</v>
       </c>
       <c r="G74" s="22" t="s">
@@ -27989,8 +29383,7 @@
       <c r="B75" s="53"/>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23" t="s">
+      <c r="E75" s="22" t="s">
         <v>1943</v>
       </c>
       <c r="G75" s="22" t="s">
@@ -28014,11 +29407,12 @@
       <c r="B77" s="53"/>
       <c r="C77" s="53"/>
       <c r="D77" s="53"/>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="22"/>
+      <c r="F77" s="23" t="s">
         <v>1947</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="H77" s="53"/>
     </row>
@@ -28028,10 +29422,10 @@
       <c r="D78" s="53"/>
       <c r="E78" s="22"/>
       <c r="F78" s="23" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H78" s="53"/>
     </row>
@@ -28041,10 +29435,10 @@
       <c r="D79" s="53"/>
       <c r="E79" s="22"/>
       <c r="F79" s="23" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H79" s="53"/>
     </row>
@@ -28054,10 +29448,10 @@
       <c r="D80" s="53"/>
       <c r="E80" s="22"/>
       <c r="F80" s="23" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H80" s="53"/>
     </row>
@@ -28065,12 +29459,14 @@
       <c r="B81" s="53"/>
       <c r="C81" s="53"/>
       <c r="D81" s="53"/>
-      <c r="E81" s="22"/>
+      <c r="E81" s="22" t="s">
+        <v>1955</v>
+      </c>
       <c r="F81" s="23" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="H81" s="53"/>
     </row>
@@ -28078,14 +29474,12 @@
       <c r="B82" s="53"/>
       <c r="C82" s="53"/>
       <c r="D82" s="53"/>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="22"/>
+      <c r="F82" s="23" t="s">
         <v>1957</v>
       </c>
-      <c r="F82" s="23" t="s">
-        <v>1958</v>
-      </c>
       <c r="G82" s="22" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H82" s="53"/>
     </row>
@@ -28095,10 +29489,10 @@
       <c r="D83" s="53"/>
       <c r="E83" s="22"/>
       <c r="F83" s="23" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="H83" s="53"/>
     </row>
@@ -28106,9 +29500,11 @@
       <c r="B84" s="53"/>
       <c r="C84" s="53"/>
       <c r="D84" s="53"/>
-      <c r="E84" s="22"/>
+      <c r="E84" s="22" t="s">
+        <v>1962</v>
+      </c>
       <c r="F84" s="23" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>1963</v>
@@ -28119,14 +29515,12 @@
       <c r="B85" s="53"/>
       <c r="C85" s="53"/>
       <c r="D85" s="53"/>
-      <c r="E85" s="22" t="s">
-        <v>1964</v>
-      </c>
+      <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>1966</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>1965</v>
       </c>
       <c r="H85" s="53"/>
     </row>
@@ -28134,8 +29528,7 @@
       <c r="B86" s="53"/>
       <c r="C86" s="53"/>
       <c r="D86" s="53"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23" t="s">
+      <c r="E86" s="22" t="s">
         <v>1967</v>
       </c>
       <c r="G86" s="22" t="s">
@@ -28146,7 +29539,9 @@
     <row r="87" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="53"/>
       <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
+      <c r="D87" s="53">
+        <v>9</v>
+      </c>
       <c r="E87" s="22" t="s">
         <v>1969</v>
       </c>
@@ -28158,14 +29553,15 @@
     <row r="88" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="53"/>
       <c r="C88" s="53"/>
-      <c r="D88" s="53">
-        <v>9</v>
-      </c>
+      <c r="D88" s="53"/>
       <c r="E88" s="22" t="s">
         <v>1971</v>
       </c>
+      <c r="F88" s="23" t="s">
+        <v>1972</v>
+      </c>
       <c r="G88" s="22" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="H88" s="53"/>
     </row>
@@ -28173,14 +29569,12 @@
       <c r="B89" s="53"/>
       <c r="C89" s="53"/>
       <c r="D89" s="53"/>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="22"/>
+      <c r="F89" s="23" t="s">
         <v>1973</v>
       </c>
-      <c r="F89" s="23" t="s">
-        <v>1974</v>
-      </c>
       <c r="G89" s="22" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="H89" s="53"/>
     </row>
@@ -28190,10 +29584,10 @@
       <c r="D90" s="53"/>
       <c r="E90" s="22"/>
       <c r="F90" s="23" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="H90" s="53"/>
     </row>
@@ -28201,12 +29595,14 @@
       <c r="B91" s="53"/>
       <c r="C91" s="53"/>
       <c r="D91" s="53"/>
-      <c r="E91" s="22"/>
+      <c r="E91" s="22" t="s">
+        <v>1978</v>
+      </c>
       <c r="F91" s="23" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="H91" s="53"/>
     </row>
@@ -28214,44 +29610,42 @@
       <c r="B92" s="53"/>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="22"/>
+      <c r="F92" s="23" t="s">
         <v>1980</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="G92" s="22" t="s">
         <v>1981</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>1965</v>
       </c>
       <c r="H92" s="53"/>
     </row>
     <row r="93" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="53"/>
       <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="22"/>
+      <c r="D93" s="53">
+        <v>10</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>1982</v>
+      </c>
       <c r="F93" s="23" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>1983</v>
+        <v>1929</v>
       </c>
       <c r="H93" s="53"/>
     </row>
-    <row r="94" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B94" s="53"/>
       <c r="C94" s="53"/>
-      <c r="D94" s="53">
-        <v>10</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>1984</v>
-      </c>
+      <c r="D94" s="53"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>1931</v>
+        <v>1988</v>
       </c>
       <c r="H94" s="53"/>
     </row>
@@ -28261,10 +29655,10 @@
       <c r="D95" s="53"/>
       <c r="E95" s="22"/>
       <c r="F95" s="23" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H95" s="53"/>
     </row>
@@ -28277,7 +29671,7 @@
         <v>1986</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H96" s="53"/>
     </row>
@@ -28287,23 +29681,25 @@
       <c r="D97" s="53"/>
       <c r="E97" s="22"/>
       <c r="F97" s="23" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="H97" s="53"/>
     </row>
-    <row r="98" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="53"/>
       <c r="C98" s="53"/>
       <c r="D98" s="53"/>
-      <c r="E98" s="22"/>
+      <c r="E98" s="22" t="s">
+        <v>1991</v>
+      </c>
       <c r="F98" s="23" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="H98" s="53"/>
     </row>
@@ -28311,14 +29707,12 @@
       <c r="B99" s="53"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="22"/>
+      <c r="F99" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G99" s="22" t="s">
         <v>1993</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>1994</v>
       </c>
       <c r="H99" s="53"/>
     </row>
@@ -28331,7 +29725,7 @@
         <v>1986</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="H100" s="53"/>
     </row>
@@ -28341,20 +29735,24 @@
       <c r="D101" s="53"/>
       <c r="E101" s="22"/>
       <c r="F101" s="23" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H101" s="53"/>
     </row>
     <row r="102" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="53"/>
       <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="22"/>
+      <c r="D102" s="53">
+        <v>11</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>1994</v>
+      </c>
       <c r="F102" s="23" t="s">
-        <v>1989</v>
+        <v>1874</v>
       </c>
       <c r="G102" s="22" t="s">
         <v>1995</v>
@@ -28364,17 +29762,13 @@
     <row r="103" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="53"/>
       <c r="C103" s="53"/>
-      <c r="D103" s="53">
-        <v>11</v>
-      </c>
-      <c r="E103" s="22" t="s">
+      <c r="D103" s="53"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="23" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>1996</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>1997</v>
       </c>
       <c r="H103" s="53"/>
     </row>
@@ -28384,10 +29778,10 @@
       <c r="D104" s="53"/>
       <c r="E104" s="22"/>
       <c r="F104" s="23" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="H104" s="53"/>
     </row>
@@ -28395,12 +29789,14 @@
       <c r="B105" s="53"/>
       <c r="C105" s="53"/>
       <c r="D105" s="53"/>
-      <c r="E105" s="22"/>
+      <c r="E105" s="22" t="s">
+        <v>2043</v>
+      </c>
       <c r="F105" s="23" t="s">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>2001</v>
+        <v>2044</v>
       </c>
       <c r="H105" s="53"/>
     </row>
@@ -28408,14 +29804,12 @@
       <c r="B106" s="53"/>
       <c r="C106" s="53"/>
       <c r="D106" s="53"/>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="22"/>
+      <c r="F106" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G106" s="22" t="s">
         <v>2045</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>2046</v>
       </c>
       <c r="H106" s="53"/>
     </row>
@@ -28428,7 +29822,7 @@
         <v>1986</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="H107" s="53"/>
     </row>
@@ -28438,10 +29832,10 @@
       <c r="D108" s="53"/>
       <c r="E108" s="22"/>
       <c r="F108" s="23" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="H108" s="53"/>
     </row>
@@ -28450,12 +29844,7 @@
       <c r="C109" s="53"/>
       <c r="D109" s="53"/>
       <c r="E109" s="22"/>
-      <c r="F109" s="23" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>2047</v>
-      </c>
+      <c r="G109" s="22"/>
       <c r="H109" s="53"/>
     </row>
     <row r="110" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
@@ -28467,41 +29856,45 @@
       <c r="H110" s="53"/>
     </row>
     <row r="111" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="22"/>
-      <c r="G111" s="22"/>
+      <c r="B111" s="53" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D111" s="53">
+        <v>1</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>1881</v>
+      </c>
       <c r="H111" s="53"/>
     </row>
-    <row r="112" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="53" t="s">
-        <v>2003</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D112" s="53">
-        <v>1</v>
-      </c>
-      <c r="E112" s="22" t="s">
+    <row r="112" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="23" t="s">
         <v>1880</v>
       </c>
-      <c r="F112" s="23" t="s">
-        <v>1881</v>
-      </c>
       <c r="G112" s="22" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H112" s="53"/>
     </row>
-    <row r="113" spans="2:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B113" s="53"/>
       <c r="C113" s="53"/>
       <c r="D113" s="53"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="23" t="s">
-        <v>1882</v>
+      <c r="E113" s="22" t="s">
+        <v>1883</v>
       </c>
       <c r="G113" s="22" t="s">
         <v>1884</v>
@@ -28512,11 +29905,12 @@
       <c r="B114" s="53"/>
       <c r="C114" s="53"/>
       <c r="D114" s="53"/>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="22"/>
+      <c r="F114" s="23" t="s">
         <v>1885</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="H114" s="53"/>
     </row>
@@ -28526,10 +29920,10 @@
       <c r="D115" s="53"/>
       <c r="E115" s="22"/>
       <c r="F115" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H115" s="53"/>
     </row>
@@ -28537,9 +29931,8 @@
       <c r="B116" s="53"/>
       <c r="C116" s="53"/>
       <c r="D116" s="53"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="23" t="s">
-        <v>1888</v>
+      <c r="E116" s="22" t="s">
+        <v>1889</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>1890</v>
@@ -28550,11 +29943,12 @@
       <c r="B117" s="53"/>
       <c r="C117" s="53"/>
       <c r="D117" s="53"/>
-      <c r="E117" s="22" t="s">
-        <v>1891</v>
+      <c r="E117" s="22"/>
+      <c r="F117" s="23" t="s">
+        <v>1914</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>1892</v>
+        <v>1916</v>
       </c>
       <c r="H117" s="53"/>
     </row>
@@ -28564,10 +29958,10 @@
       <c r="D118" s="53"/>
       <c r="E118" s="22"/>
       <c r="F118" s="23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H118" s="53"/>
     </row>
@@ -28575,12 +29969,11 @@
       <c r="B119" s="53"/>
       <c r="C119" s="53"/>
       <c r="D119" s="53"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="23" t="s">
-        <v>1917</v>
+      <c r="E119" s="22" t="s">
+        <v>1892</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>1919</v>
+        <v>1893</v>
       </c>
       <c r="H119" s="53"/>
     </row>
@@ -28588,11 +29981,12 @@
       <c r="B120" s="53"/>
       <c r="C120" s="53"/>
       <c r="D120" s="53"/>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="22"/>
+      <c r="F120" s="23" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>1894</v>
-      </c>
-      <c r="G120" s="22" t="s">
-        <v>1895</v>
       </c>
       <c r="H120" s="53"/>
     </row>
@@ -28602,10 +29996,10 @@
       <c r="D121" s="53"/>
       <c r="E121" s="22"/>
       <c r="F121" s="23" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H121" s="53"/>
     </row>
@@ -28613,11 +30007,13 @@
       <c r="B122" s="53"/>
       <c r="C122" s="53"/>
       <c r="D122" s="53"/>
-      <c r="E122" s="22"/>
+      <c r="E122" s="22" t="s">
+        <v>1896</v>
+      </c>
       <c r="F122" s="23" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G122" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G122" s="23" t="s">
         <v>1897</v>
       </c>
       <c r="H122" s="53"/>
@@ -28626,14 +30022,12 @@
       <c r="B123" s="53"/>
       <c r="C123" s="53"/>
       <c r="D123" s="53"/>
-      <c r="E123" s="22" t="s">
-        <v>1898</v>
-      </c>
+      <c r="E123" s="22"/>
       <c r="F123" s="23" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>1899</v>
+        <v>1421</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>1252</v>
       </c>
       <c r="H123" s="53"/>
     </row>
@@ -28643,10 +30037,10 @@
       <c r="D124" s="53"/>
       <c r="E124" s="22"/>
       <c r="F124" s="23" t="s">
-        <v>1421</v>
+        <v>1914</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>1252</v>
+        <v>1916</v>
       </c>
       <c r="H124" s="53"/>
     </row>
@@ -28656,10 +30050,10 @@
       <c r="D125" s="53"/>
       <c r="E125" s="22"/>
       <c r="F125" s="23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H125" s="53"/>
     </row>
@@ -28669,10 +30063,10 @@
       <c r="D126" s="53"/>
       <c r="E126" s="22"/>
       <c r="F126" s="23" t="s">
-        <v>1917</v>
+        <v>1746</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>1919</v>
+        <v>1749</v>
       </c>
       <c r="H126" s="53"/>
     </row>
@@ -28682,7 +30076,7 @@
       <c r="D127" s="53"/>
       <c r="E127" s="22"/>
       <c r="F127" s="23" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="G127" s="22" t="s">
         <v>1749</v>
@@ -28693,12 +30087,14 @@
       <c r="B128" s="53"/>
       <c r="C128" s="53"/>
       <c r="D128" s="53"/>
-      <c r="E128" s="22"/>
+      <c r="E128" s="22" t="s">
+        <v>1759</v>
+      </c>
       <c r="F128" s="23" t="s">
-        <v>1747</v>
+        <v>1760</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>1749</v>
+        <v>1761</v>
       </c>
       <c r="H128" s="53"/>
     </row>
@@ -28706,27 +30102,26 @@
       <c r="B129" s="53"/>
       <c r="C129" s="53"/>
       <c r="D129" s="53"/>
-      <c r="E129" s="22" t="s">
-        <v>1759</v>
-      </c>
+      <c r="E129" s="22"/>
       <c r="F129" s="23" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H129" s="53"/>
     </row>
     <row r="130" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="53"/>
       <c r="C130" s="53"/>
-      <c r="D130" s="53"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="23" t="s">
-        <v>1762</v>
+      <c r="D130" s="53">
+        <v>2</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>1898</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>1763</v>
+        <v>2002</v>
       </c>
       <c r="H130" s="53"/>
     </row>
@@ -28734,43 +30129,43 @@
       <c r="B131" s="53"/>
       <c r="C131" s="53"/>
       <c r="D131" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>1900</v>
+        <v>1910</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>1911</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>2004</v>
+        <v>1913</v>
       </c>
       <c r="H131" s="53"/>
     </row>
     <row r="132" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="53"/>
       <c r="C132" s="53"/>
-      <c r="D132" s="53">
-        <v>3</v>
-      </c>
-      <c r="E132" s="22" t="s">
+      <c r="D132" s="53"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="23" t="s">
         <v>1912</v>
       </c>
-      <c r="F132" s="23" t="s">
-        <v>1913</v>
-      </c>
       <c r="G132" s="22" t="s">
-        <v>1915</v>
+        <v>1877</v>
       </c>
       <c r="H132" s="53"/>
     </row>
     <row r="133" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B133" s="53"/>
       <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="23" t="s">
-        <v>1914</v>
+      <c r="D133" s="53">
+        <v>4</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>1927</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>1879</v>
+        <v>2003</v>
       </c>
       <c r="H133" s="53"/>
     </row>
@@ -28778,13 +30173,13 @@
       <c r="B134" s="53"/>
       <c r="C134" s="53"/>
       <c r="D134" s="53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>1929</v>
+        <v>1969</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H134" s="53"/>
     </row>
@@ -28792,101 +30187,100 @@
       <c r="B135" s="53"/>
       <c r="C135" s="53"/>
       <c r="D135" s="53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>1971</v>
+        <v>1982</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>1983</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>2006</v>
+        <v>1929</v>
       </c>
       <c r="H135" s="53"/>
     </row>
     <row r="136" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B136" s="53"/>
       <c r="C136" s="53"/>
-      <c r="D136" s="53">
-        <v>6</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>1984</v>
-      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="23" t="s">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>1931</v>
+        <v>2006</v>
       </c>
       <c r="H136" s="53"/>
     </row>
     <row r="137" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="53"/>
       <c r="C137" s="53"/>
-      <c r="D137" s="53"/>
-      <c r="E137" s="22"/>
+      <c r="D137" s="53">
+        <v>11</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>1994</v>
+      </c>
       <c r="F137" s="23" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G137" s="22" t="s">
         <v>2007</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>2008</v>
       </c>
       <c r="H137" s="53"/>
     </row>
     <row r="138" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="53"/>
       <c r="C138" s="53"/>
-      <c r="D138" s="53">
-        <v>11</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>1996</v>
-      </c>
-      <c r="F138" s="23" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G138" s="22" t="s">
+      <c r="D138" s="53"/>
+      <c r="E138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="53"/>
+    </row>
+    <row r="139" spans="1:8" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A139" s="73" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="72" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G140" s="22"/>
+      <c r="H140" s="53"/>
+    </row>
+    <row r="141" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="53" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C141" s="53" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D141" s="53">
+        <v>1</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>2009</v>
       </c>
-      <c r="H138" s="53"/>
-    </row>
-    <row r="139" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="53"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="53"/>
-      <c r="E139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="53"/>
-    </row>
-    <row r="140" spans="1:8" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A140" s="73" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="72" t="s">
+      <c r="F141" s="23" t="s">
         <v>2010</v>
       </c>
-      <c r="G141" s="22"/>
+      <c r="G141" s="22" t="s">
+        <v>2013</v>
+      </c>
       <c r="H141" s="53"/>
     </row>
     <row r="142" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="53" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C142" s="53" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D142" s="53">
-        <v>1</v>
-      </c>
-      <c r="E142" s="22" t="s">
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="23" t="s">
         <v>2011</v>
       </c>
-      <c r="F142" s="23" t="s">
-        <v>2012</v>
-      </c>
       <c r="G142" s="22" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H142" s="53"/>
     </row>
@@ -28896,10 +30290,10 @@
       <c r="D143" s="53"/>
       <c r="E143" s="22"/>
       <c r="F143" s="23" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H143" s="53"/>
     </row>
@@ -28907,37 +30301,37 @@
       <c r="B144" s="53"/>
       <c r="C144" s="53"/>
       <c r="D144" s="53"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="23" t="s">
-        <v>2014</v>
-      </c>
-      <c r="G144" s="22" t="s">
-        <v>2017</v>
-      </c>
+      <c r="E144" s="72" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G144" s="22"/>
       <c r="H144" s="53"/>
     </row>
     <row r="145" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="53"/>
       <c r="C145" s="53"/>
       <c r="D145" s="53"/>
-      <c r="E145" s="72" t="s">
+      <c r="E145" s="22" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F145" s="23" t="s">
         <v>2018</v>
       </c>
-      <c r="G145" s="22"/>
+      <c r="G145" s="22" t="s">
+        <v>2013</v>
+      </c>
       <c r="H145" s="53"/>
     </row>
     <row r="146" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="53"/>
       <c r="C146" s="53"/>
       <c r="D146" s="53"/>
-      <c r="E146" s="22" t="s">
-        <v>2011</v>
-      </c>
+      <c r="E146" s="22"/>
       <c r="F146" s="23" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="H146" s="53"/>
     </row>
@@ -28950,7 +30344,7 @@
         <v>2019</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="H147" s="53"/>
     </row>
@@ -28958,37 +30352,37 @@
       <c r="B148" s="53"/>
       <c r="C148" s="53"/>
       <c r="D148" s="53"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="23" t="s">
-        <v>2021</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>2017</v>
-      </c>
+      <c r="E148" s="72" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G148" s="22"/>
       <c r="H148" s="53"/>
     </row>
     <row r="149" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="53"/>
       <c r="C149" s="53"/>
       <c r="D149" s="53"/>
-      <c r="E149" s="72" t="s">
-        <v>2022</v>
-      </c>
-      <c r="G149" s="22"/>
+      <c r="E149" s="22" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>2013</v>
+      </c>
       <c r="H149" s="53"/>
     </row>
     <row r="150" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="53"/>
       <c r="C150" s="53"/>
       <c r="D150" s="53"/>
-      <c r="E150" s="22" t="s">
-        <v>2011</v>
-      </c>
+      <c r="E150" s="22"/>
       <c r="F150" s="23" t="s">
         <v>2021</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H150" s="53"/>
     </row>
@@ -28998,10 +30392,10 @@
       <c r="D151" s="53"/>
       <c r="E151" s="22"/>
       <c r="F151" s="23" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H151" s="53"/>
     </row>
@@ -29009,37 +30403,37 @@
       <c r="B152" s="53"/>
       <c r="C152" s="53"/>
       <c r="D152" s="53"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="23" t="s">
-        <v>2024</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>2017</v>
-      </c>
+      <c r="E152" s="72" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G152" s="22"/>
       <c r="H152" s="53"/>
     </row>
     <row r="153" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="53"/>
       <c r="C153" s="53"/>
       <c r="D153" s="53"/>
-      <c r="E153" s="72" t="s">
-        <v>2028</v>
-      </c>
-      <c r="G153" s="22"/>
+      <c r="E153" s="22" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>2023</v>
+      </c>
       <c r="H153" s="53"/>
     </row>
     <row r="154" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="53"/>
       <c r="C154" s="53"/>
       <c r="D154" s="53"/>
-      <c r="E154" s="22" t="s">
-        <v>2011</v>
-      </c>
+      <c r="E154" s="22"/>
       <c r="F154" s="23" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="H154" s="53"/>
     </row>
@@ -29049,10 +30443,10 @@
       <c r="D155" s="53"/>
       <c r="E155" s="22"/>
       <c r="F155" s="23" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H155" s="53"/>
     </row>
@@ -29061,39 +30455,39 @@
       <c r="C156" s="53"/>
       <c r="D156" s="53"/>
       <c r="E156" s="22"/>
-      <c r="F156" s="23" t="s">
+      <c r="H156" s="53"/>
+    </row>
+    <row r="157" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="53" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C157" s="53" t="s">
         <v>2031</v>
       </c>
-      <c r="G156" s="22" t="s">
-        <v>2017</v>
-      </c>
-      <c r="H156" s="53"/>
-    </row>
-    <row r="157" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="53"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="22"/>
+      <c r="D157" s="53">
+        <v>1</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>2033</v>
+      </c>
       <c r="H157" s="53"/>
     </row>
     <row r="158" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="53" t="s">
-        <v>2032</v>
-      </c>
-      <c r="C158" s="53" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D158" s="53">
-        <v>1</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>2034</v>
-      </c>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="23" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G158" s="22" t="s">
         <v>2036</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>2035</v>
       </c>
       <c r="H158" s="53"/>
     </row>
@@ -29113,54 +30507,54 @@
     <row r="160" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B160" s="53"/>
       <c r="C160" s="53"/>
-      <c r="D160" s="53"/>
-      <c r="E160" s="22"/>
+      <c r="D160" s="53">
+        <v>2</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>2039</v>
+      </c>
       <c r="F160" s="23" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="H160" s="53"/>
     </row>
     <row r="161" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B161" s="53"/>
       <c r="C161" s="53"/>
-      <c r="D161" s="53">
-        <v>2</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F161" s="23" t="s">
+      <c r="D161" s="53"/>
+      <c r="E161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="53"/>
+    </row>
+    <row r="162" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="53" t="s">
         <v>2042</v>
       </c>
-      <c r="G161" s="22" t="s">
-        <v>2043</v>
-      </c>
-      <c r="H161" s="53"/>
-    </row>
-    <row r="162" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="53"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="22"/>
-      <c r="G162" s="22"/>
+      <c r="C162" s="53" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D162" s="53">
+        <v>1</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>2050</v>
+      </c>
       <c r="H162" s="53"/>
     </row>
     <row r="163" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="53" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C163" s="53" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D163" s="53">
-        <v>1</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>2050</v>
-      </c>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="23" t="s">
         <v>2051</v>
       </c>
@@ -29178,7 +30572,7 @@
         <v>2053</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="H164" s="53"/>
     </row>
@@ -29188,10 +30582,10 @@
       <c r="D165" s="53"/>
       <c r="E165" s="22"/>
       <c r="F165" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H165" s="53"/>
     </row>
@@ -29201,7 +30595,7 @@
       <c r="D166" s="53"/>
       <c r="E166" s="22"/>
       <c r="F166" s="23" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="G166" s="22" t="s">
         <v>2058</v>
@@ -29212,12 +30606,14 @@
       <c r="B167" s="53"/>
       <c r="C167" s="53"/>
       <c r="D167" s="53"/>
-      <c r="E167" s="22"/>
+      <c r="E167" s="22" t="s">
+        <v>2059</v>
+      </c>
       <c r="F167" s="23" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="G167" s="22" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="H167" s="53"/>
     </row>
@@ -29225,14 +30621,12 @@
       <c r="B168" s="53"/>
       <c r="C168" s="53"/>
       <c r="D168" s="53"/>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="22"/>
+      <c r="F168" s="23" t="s">
         <v>2061</v>
       </c>
-      <c r="F168" s="23" t="s">
-        <v>2062</v>
-      </c>
       <c r="G168" s="22" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H168" s="53"/>
     </row>
@@ -29240,9 +30634,8 @@
       <c r="B169" s="53"/>
       <c r="C169" s="53"/>
       <c r="D169" s="53"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="23" t="s">
-        <v>2063</v>
+      <c r="E169" s="22" t="s">
+        <v>2064</v>
       </c>
       <c r="G169" s="22" t="s">
         <v>2065</v>
@@ -29253,40 +30646,42 @@
       <c r="B170" s="53"/>
       <c r="C170" s="53"/>
       <c r="D170" s="53"/>
-      <c r="E170" s="22" t="s">
+      <c r="E170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="53"/>
+    </row>
+    <row r="171" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="53" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C171" s="53" t="s">
         <v>2066</v>
       </c>
-      <c r="G170" s="22" t="s">
+      <c r="D171" s="53">
+        <v>1</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G171" s="22" t="s">
         <v>2067</v>
       </c>
-      <c r="H170" s="53"/>
-    </row>
-    <row r="171" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="53"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="22"/>
-      <c r="G171" s="22"/>
       <c r="H171" s="53"/>
+      <c r="I171" s="54"/>
     </row>
     <row r="172" spans="2:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="53" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C172" s="53" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D172" s="53">
-        <v>1</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>2048</v>
-      </c>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="23" t="s">
         <v>2051</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="H172" s="53"/>
       <c r="I172" s="54"/>
@@ -29300,7 +30695,7 @@
         <v>2053</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="H173" s="53"/>
       <c r="I173" s="54"/>
@@ -29311,10 +30706,10 @@
       <c r="D174" s="53"/>
       <c r="E174" s="22"/>
       <c r="F174" s="23" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G174" s="22" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="H174" s="53"/>
       <c r="I174" s="54"/>
@@ -29325,10 +30720,10 @@
       <c r="D175" s="53"/>
       <c r="E175" s="22"/>
       <c r="F175" s="23" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="G175" s="22" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="H175" s="53"/>
       <c r="I175" s="54"/>
@@ -29337,28 +30732,27 @@
       <c r="B176" s="53"/>
       <c r="C176" s="53"/>
       <c r="D176" s="53"/>
-      <c r="E176" s="22"/>
+      <c r="E176" s="22" t="s">
+        <v>2059</v>
+      </c>
       <c r="F176" s="23" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="H176" s="53"/>
-      <c r="I176" s="54"/>
     </row>
     <row r="177" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B177" s="53"/>
       <c r="C177" s="53"/>
       <c r="D177" s="53"/>
-      <c r="E177" s="22" t="s">
+      <c r="E177" s="22"/>
+      <c r="F177" s="23" t="s">
         <v>2061</v>
       </c>
-      <c r="F177" s="23" t="s">
-        <v>2062</v>
-      </c>
       <c r="G177" s="22" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="H177" s="53"/>
     </row>
@@ -29366,12 +30760,11 @@
       <c r="B178" s="53"/>
       <c r="C178" s="53"/>
       <c r="D178" s="53"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="23" t="s">
-        <v>2063</v>
+      <c r="E178" s="22" t="s">
+        <v>2064</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="H178" s="53"/>
     </row>
@@ -29379,12 +30772,8 @@
       <c r="B179" s="53"/>
       <c r="C179" s="53"/>
       <c r="D179" s="53"/>
-      <c r="E179" s="22" t="s">
-        <v>2066</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>2076</v>
-      </c>
+      <c r="E179" s="22"/>
+      <c r="G179" s="22"/>
       <c r="H179" s="53"/>
     </row>
     <row r="180" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
@@ -29419,13 +30808,14 @@
       <c r="G183" s="22"/>
       <c r="H183" s="53"/>
     </row>
-    <row r="184" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="53"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="22"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="53"/>
+    <row r="184" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="34"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="33"/>
     </row>
     <row r="185" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="34"/>
@@ -29476,7 +30866,7 @@
       <c r="A190" s="34"/>
       <c r="B190" s="32"/>
       <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="33"/>
       <c r="F190" s="34"/>
       <c r="G190" s="33"/>
@@ -29485,7 +30875,7 @@
       <c r="A191" s="34"/>
       <c r="B191" s="32"/>
       <c r="C191" s="32"/>
-      <c r="D191" s="34"/>
+      <c r="D191" s="32"/>
       <c r="E191" s="33"/>
       <c r="F191" s="34"/>
       <c r="G191" s="33"/>
@@ -29706,7 +31096,7 @@
       <c r="F215" s="34"/>
       <c r="G215" s="33"/>
     </row>
-    <row r="216" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="34"/>
       <c r="B216" s="32"/>
       <c r="C216" s="32"/>
@@ -29714,6 +31104,7 @@
       <c r="E216" s="33"/>
       <c r="F216" s="34"/>
       <c r="G216" s="33"/>
+      <c r="H216" s="53"/>
     </row>
     <row r="217" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="34"/>
@@ -29806,13 +31197,11 @@
       <c r="H225" s="53"/>
     </row>
     <row r="226" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="34"/>
-      <c r="B226" s="32"/>
-      <c r="C226" s="32"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="34"/>
-      <c r="G226" s="33"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="53"/>
+      <c r="E226" s="22"/>
+      <c r="G226" s="22"/>
       <c r="H226" s="53"/>
     </row>
     <row r="227" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
@@ -29820,6 +31209,7 @@
       <c r="C227" s="53"/>
       <c r="D227" s="53"/>
       <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
       <c r="G227" s="22"/>
       <c r="H227" s="53"/>
     </row>
@@ -29855,7 +31245,6 @@
       <c r="C231" s="53"/>
       <c r="D231" s="53"/>
       <c r="E231" s="22"/>
-      <c r="F231" s="22"/>
       <c r="G231" s="22"/>
       <c r="H231" s="53"/>
     </row>
@@ -29890,6 +31279,7 @@
       <c r="E235" s="22"/>
       <c r="G235" s="22"/>
       <c r="H235" s="53"/>
+      <c r="I235" s="54"/>
     </row>
     <row r="236" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B236" s="53"/>
@@ -29898,7 +31288,6 @@
       <c r="E236" s="22"/>
       <c r="G236" s="22"/>
       <c r="H236" s="53"/>
-      <c r="I236" s="54"/>
     </row>
     <row r="237" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B237" s="53"/>
@@ -29958,7 +31347,7 @@
     </row>
     <row r="244" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B244" s="53"/>
-      <c r="C244" s="53"/>
+      <c r="C244" s="55"/>
       <c r="D244" s="53"/>
       <c r="E244" s="22"/>
       <c r="G244" s="22"/>
@@ -29966,7 +31355,7 @@
     </row>
     <row r="245" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B245" s="53"/>
-      <c r="C245" s="55"/>
+      <c r="C245" s="53"/>
       <c r="D245" s="53"/>
       <c r="E245" s="22"/>
       <c r="G245" s="22"/>
@@ -30036,92 +31425,3440 @@
       <c r="G253" s="22"/>
       <c r="H253" s="53"/>
     </row>
-    <row r="254" spans="2:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B254" s="53"/>
-      <c r="C254" s="53"/>
-      <c r="D254" s="53"/>
-      <c r="E254" s="22"/>
-      <c r="G254" s="22"/>
-      <c r="H254" s="53"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K2:IU2 K140:IU140 B2:G2 B140:G140 H1:J2 H4:J31 H34:J38 H41:J51 H54:J57 H60:J171">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:IU2 K139:IU139 B2:G2 B139:G139 H1:J2 H40:J50 H53:J56 H59:J170 H4:J26 H29:J37">
+    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J172:J176 H177:J235 H236 J236 H172 H237:J1048576">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J171:J175 H176:J234 H235 J235 H171 H236:J1048576">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H173:H176">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H172:H175">
+    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 K3:IU3">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:J33">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H27:J28">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:J40">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H38:J39">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:J53">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H51:J52">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:J59">
+  <conditionalFormatting sqref="H57:J58">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K245"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D230" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F250" sqref="F250"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="37" style="7" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="75" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="53" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53">
+        <v>2</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="E7" s="22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34"/>
+      <c r="E11" s="22" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34"/>
+      <c r="E12" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="E16" s="22" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="E19" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="34"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+      <c r="E23" s="61" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="22" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="E24" s="22" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>2088</v>
+      </c>
+      <c r="K24" s="76" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J25" s="77" t="s">
+        <v>2090</v>
+      </c>
+      <c r="K25" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>2091</v>
+      </c>
+      <c r="K26" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K27" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="E28" s="22" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K28" s="77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>2094</v>
+      </c>
+      <c r="K29" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>2095</v>
+      </c>
+      <c r="K30" s="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="34"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="34"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="34"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H36" s="53"/>
+    </row>
+    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="34"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H37" s="53"/>
+    </row>
+    <row r="38" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A38" s="34"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53">
+        <v>4</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="34"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H39" s="53"/>
+    </row>
+    <row r="40" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="34"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="34"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="34"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="34"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="47" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="34"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H47" s="53"/>
+    </row>
+    <row r="48" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="34"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="22" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H48" s="53"/>
+    </row>
+    <row r="49" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="34"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H49" s="53"/>
+    </row>
+    <row r="50" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="34"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="H50" s="53"/>
+    </row>
+    <row r="51" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="34"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H51" s="53"/>
+    </row>
+    <row r="52" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="34"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H52" s="53"/>
+    </row>
+    <row r="53" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="34"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H53" s="53"/>
+    </row>
+    <row r="54" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="34"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H54" s="53"/>
+    </row>
+    <row r="55" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A55" s="34"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="22" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H55" s="53"/>
+    </row>
+    <row r="56" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="34"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="22" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="34"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H57" s="53"/>
+    </row>
+    <row r="58" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="34"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="34"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>2168</v>
+      </c>
+      <c r="H59" s="53"/>
+    </row>
+    <row r="60" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H60" s="53"/>
+    </row>
+    <row r="61" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="34"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="34"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H62" s="53"/>
+    </row>
+    <row r="63" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="34"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="34"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H64" s="53"/>
+    </row>
+    <row r="65" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A65" s="34"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H65" s="53"/>
+    </row>
+    <row r="66" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="34"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H66" s="53"/>
+    </row>
+    <row r="67" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="34"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="34"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H68" s="53"/>
+    </row>
+    <row r="69" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="34"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="22" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H69" s="53"/>
+    </row>
+    <row r="70" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="34"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>2180</v>
+      </c>
+      <c r="H70" s="53"/>
+    </row>
+    <row r="71" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="34"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H71" s="53"/>
+    </row>
+    <row r="72" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="34"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H72" s="53"/>
+    </row>
+    <row r="73" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="34"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H73" s="53"/>
+    </row>
+    <row r="74" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="34"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H74" s="53"/>
+    </row>
+    <row r="75" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="34"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H75" s="53"/>
+    </row>
+    <row r="76" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="34"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H76" s="53"/>
+    </row>
+    <row r="77" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="34"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G77" s="22"/>
+      <c r="H77" s="53"/>
+    </row>
+    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="34"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H78" s="53"/>
+    </row>
+    <row r="79" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="34"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="22" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22" t="s">
+        <v>2260</v>
+      </c>
+      <c r="H79" s="53"/>
+    </row>
+    <row r="80" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A80" s="34"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53">
+        <v>5</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H80" s="53"/>
+    </row>
+    <row r="81" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="34"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="22" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H81" s="53"/>
+    </row>
+    <row r="82" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="34"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="22" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H82" s="53"/>
+    </row>
+    <row r="83" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="34"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H83" s="53"/>
+    </row>
+    <row r="84" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="34"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H84" s="53"/>
+    </row>
+    <row r="85" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="34"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H85" s="53"/>
+    </row>
+    <row r="86" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="34"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H86" s="53"/>
+    </row>
+    <row r="87" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="34"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="22" t="s">
+        <v>2266</v>
+      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H87" s="53"/>
+    </row>
+    <row r="88" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A88" s="34"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="22" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H88" s="53"/>
+    </row>
+    <row r="89" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="34"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H89" s="53"/>
+    </row>
+    <row r="90" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="34"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="22" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H90" s="53"/>
+    </row>
+    <row r="91" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="34"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="22" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H91" s="53"/>
+    </row>
+    <row r="92" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="34"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H92" s="53"/>
+    </row>
+    <row r="93" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="34"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H93" s="53"/>
+    </row>
+    <row r="94" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="34"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H94" s="53"/>
+    </row>
+    <row r="95" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="34"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H95" s="53"/>
+    </row>
+    <row r="96" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="34"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="22" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H96" s="53"/>
+    </row>
+    <row r="97" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="34"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H97" s="53"/>
+    </row>
+    <row r="98" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="34"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H98" s="53"/>
+    </row>
+    <row r="99" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="34"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="22" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H99" s="53"/>
+    </row>
+    <row r="100" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="34"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H100" s="53"/>
+    </row>
+    <row r="101" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="34"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="22" t="s">
+        <v>2266</v>
+      </c>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H101" s="53"/>
+    </row>
+    <row r="102" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="34"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="22" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H102" s="53"/>
+    </row>
+    <row r="103" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="34"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="22" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H103" s="53"/>
+    </row>
+    <row r="104" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A104" s="34"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H104" s="53"/>
+    </row>
+    <row r="105" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="34"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53">
+        <v>6</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H105" s="53"/>
+    </row>
+    <row r="106" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="34"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H106" s="53"/>
+    </row>
+    <row r="107" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="34"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H107" s="53"/>
+    </row>
+    <row r="108" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="34"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H108" s="53"/>
+    </row>
+    <row r="109" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="34"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="22" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>2207</v>
+      </c>
+      <c r="H109" s="53"/>
+    </row>
+    <row r="110" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A110" s="34"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H110" s="53"/>
+    </row>
+    <row r="111" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="34"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>2206</v>
+      </c>
+      <c r="H111" s="53"/>
+    </row>
+    <row r="112" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A112" s="34"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>2206</v>
+      </c>
+      <c r="H112" s="53"/>
+    </row>
+    <row r="113" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="34"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>2206</v>
+      </c>
+      <c r="H113" s="53"/>
+    </row>
+    <row r="114" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="34"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53">
+        <v>7</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H114" s="53"/>
+    </row>
+    <row r="115" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="34"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H115" s="53"/>
+    </row>
+    <row r="116" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="34"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="22" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H116" s="53"/>
+    </row>
+    <row r="117" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="34"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="22" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H117" s="53"/>
+    </row>
+    <row r="118" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="34"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>2223</v>
+      </c>
+      <c r="H118" s="53"/>
+    </row>
+    <row r="119" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="34"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H119" s="53"/>
+    </row>
+    <row r="120" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="34"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="22" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H120" s="53"/>
+    </row>
+    <row r="121" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="34"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H121" s="53"/>
+    </row>
+    <row r="122" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="34"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="22" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H122" s="53"/>
+    </row>
+    <row r="123" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="34"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H123" s="53"/>
+    </row>
+    <row r="124" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="34"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="22" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22" t="s">
+        <v>2269</v>
+      </c>
+      <c r="H124" s="53"/>
+    </row>
+    <row r="125" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="34"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="22" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H125" s="53"/>
+    </row>
+    <row r="126" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="34"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="53"/>
+    </row>
+    <row r="127" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A127" s="34"/>
+      <c r="B127" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="C127" s="53" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D127" s="53">
+        <v>1</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H127" s="53"/>
+    </row>
+    <row r="128" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="34"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H128" s="53"/>
+    </row>
+    <row r="129" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="34"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53">
+        <v>2</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>2240</v>
+      </c>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H129" s="53"/>
+    </row>
+    <row r="130" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A130" s="34"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="53">
+        <v>3</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H130" s="53"/>
+    </row>
+    <row r="131" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="34"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H131" s="53"/>
+    </row>
+    <row r="132" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="34"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>2109</v>
+      </c>
+      <c r="H132" s="53"/>
+    </row>
+    <row r="133" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="34"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H133" s="53"/>
+    </row>
+    <row r="134" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="34"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>2111</v>
+      </c>
+      <c r="H134" s="53"/>
+    </row>
+    <row r="135" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="34"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="22" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22" t="s">
+        <v>2112</v>
+      </c>
+      <c r="H135" s="53"/>
+    </row>
+    <row r="136" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="34"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>2113</v>
+      </c>
+      <c r="H136" s="53"/>
+    </row>
+    <row r="137" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="34"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>2114</v>
+      </c>
+      <c r="H137" s="53"/>
+    </row>
+    <row r="138" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="34"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G138" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H138" s="53"/>
+    </row>
+    <row r="139" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="34"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H139" s="53"/>
+    </row>
+    <row r="140" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="34"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="22" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H140" s="53"/>
+    </row>
+    <row r="141" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="34"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H141" s="53"/>
+    </row>
+    <row r="142" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="34"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H142" s="53"/>
+    </row>
+    <row r="143" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="34"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F143" s="61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H143" s="53"/>
+    </row>
+    <row r="144" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="34"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H144" s="53"/>
+    </row>
+    <row r="145" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="34"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="H145" s="53"/>
+    </row>
+    <row r="146" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="34"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H146" s="53"/>
+    </row>
+    <row r="147" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="34"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="61" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F147" s="61"/>
+      <c r="G147" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="H147" s="53"/>
+    </row>
+    <row r="148" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="34"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="22" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H148" s="53"/>
+    </row>
+    <row r="149" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="34"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>2125</v>
+      </c>
+      <c r="H149" s="53"/>
+    </row>
+    <row r="150" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="34"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H150" s="53"/>
+    </row>
+    <row r="151" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="34"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H151" s="53"/>
+    </row>
+    <row r="152" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="34"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="22" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H152" s="53"/>
+    </row>
+    <row r="153" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="34"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H153" s="53"/>
+    </row>
+    <row r="154" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="34"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G154" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H154" s="53"/>
+    </row>
+    <row r="155" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="34"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G155" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H155" s="53"/>
+    </row>
+    <row r="156" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="34"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G156" s="22" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H156" s="53"/>
+    </row>
+    <row r="157" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="34"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H157" s="53"/>
+    </row>
+    <row r="158" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="34"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H158" s="53"/>
+    </row>
+    <row r="159" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="34"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H159" s="53"/>
+    </row>
+    <row r="160" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="34"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="53"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H160" s="53"/>
+    </row>
+    <row r="161" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="34"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H161" s="53"/>
+    </row>
+    <row r="162" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A162" s="34"/>
+      <c r="D162" s="53">
+        <v>4</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H162" s="53"/>
+    </row>
+    <row r="163" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="34"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H163" s="53"/>
+    </row>
+    <row r="164" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="34"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H164" s="53"/>
+    </row>
+    <row r="165" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="34"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H165" s="53"/>
+    </row>
+    <row r="166" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="34"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H166" s="53"/>
+    </row>
+    <row r="167" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="34"/>
+      <c r="D167" s="53"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G167" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H167" s="53"/>
+    </row>
+    <row r="168" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="34"/>
+      <c r="D168" s="53"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G168" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H168" s="53"/>
+    </row>
+    <row r="169" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="34"/>
+      <c r="D169" s="53"/>
+      <c r="E169" s="22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G169" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H169" s="53"/>
+    </row>
+    <row r="170" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="34"/>
+      <c r="D170" s="53"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G170" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H170" s="53"/>
+    </row>
+    <row r="171" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="34"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G171" s="22" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H171" s="53"/>
+    </row>
+    <row r="172" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="34"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="22" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H172" s="53"/>
+    </row>
+    <row r="173" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="34"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G173" s="22"/>
+      <c r="H173" s="53"/>
+    </row>
+    <row r="174" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="34"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G174" s="22"/>
+      <c r="H174" s="53"/>
+    </row>
+    <row r="175" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="34"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="22" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F175" s="22" t="s">
+        <v>2245</v>
+      </c>
+      <c r="G175" s="22" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H175" s="53"/>
+    </row>
+    <row r="176" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="34"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>2248</v>
+      </c>
+      <c r="H176" s="53"/>
+    </row>
+    <row r="177" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="34"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H177" s="53"/>
+    </row>
+    <row r="178" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="34"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G178" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="H178" s="53"/>
+    </row>
+    <row r="179" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="34"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F179" s="22" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G179" s="22" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H179" s="53"/>
+    </row>
+    <row r="180" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="34"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G180" s="22" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H180" s="53"/>
+    </row>
+    <row r="181" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="34"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G181" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H181" s="53"/>
+    </row>
+    <row r="182" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="34"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H182" s="53"/>
+    </row>
+    <row r="183" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A183" s="34"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="22" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H183" s="53"/>
+    </row>
+    <row r="184" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="34"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="22" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F184" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G184" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H184" s="53"/>
+    </row>
+    <row r="185" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="34"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H185" s="53"/>
+    </row>
+    <row r="186" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="34"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F186" s="22" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G186" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H186" s="53"/>
+    </row>
+    <row r="187" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="34"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G187" s="22" t="s">
+        <v>2168</v>
+      </c>
+      <c r="H187" s="53"/>
+    </row>
+    <row r="188" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="34"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G188" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H188" s="53"/>
+    </row>
+    <row r="189" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="34"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F189" s="22" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G189" s="22" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H189" s="53"/>
+    </row>
+    <row r="190" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="34"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G190" s="22" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H190" s="53"/>
+    </row>
+    <row r="191" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="34"/>
+      <c r="D191" s="53"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G191" s="22" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H191" s="53"/>
+    </row>
+    <row r="192" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="34"/>
+      <c r="D192" s="53"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H192" s="53"/>
+    </row>
+    <row r="193" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A193" s="34"/>
+      <c r="D193" s="53"/>
+      <c r="E193" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H193" s="53"/>
+    </row>
+    <row r="194" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="34"/>
+      <c r="D194" s="53"/>
+      <c r="E194" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H194" s="53"/>
+    </row>
+    <row r="195" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="34"/>
+      <c r="D195" s="53"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H195" s="53"/>
+    </row>
+    <row r="196" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="34"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H196" s="53"/>
+    </row>
+    <row r="197" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="34"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="22" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G197" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H197" s="53"/>
+    </row>
+    <row r="198" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="34"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G198" s="22" t="s">
+        <v>2180</v>
+      </c>
+      <c r="H198" s="53"/>
+    </row>
+    <row r="199" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="34"/>
+      <c r="D199" s="53"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G199" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H199" s="53"/>
+    </row>
+    <row r="200" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="34"/>
+      <c r="D200" s="53"/>
+      <c r="E200" s="22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F200" s="22" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G200" s="22" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H200" s="53"/>
+    </row>
+    <row r="201" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="34"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H201" s="53"/>
+    </row>
+    <row r="202" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="34"/>
+      <c r="D202" s="53"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G202" s="22" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H202" s="53"/>
+    </row>
+    <row r="203" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="34"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="22" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H203" s="53"/>
+    </row>
+    <row r="204" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="34"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F204" s="22" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G204" s="22" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H204" s="53"/>
+    </row>
+    <row r="205" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="34"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G205" s="22"/>
+      <c r="H205" s="53"/>
+    </row>
+    <row r="206" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="34"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G206" s="22" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H206" s="53"/>
+    </row>
+    <row r="207" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="34"/>
+      <c r="D207" s="53"/>
+      <c r="E207" s="22" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F207" s="22" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G207" s="22" t="s">
+        <v>2262</v>
+      </c>
+      <c r="H207" s="53"/>
+    </row>
+    <row r="208" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="34"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G208" s="22" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H208" s="53"/>
+    </row>
+    <row r="209" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="34"/>
+      <c r="D209" s="53"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="53"/>
+    </row>
+    <row r="210" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="34"/>
+      <c r="B210" s="53" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C210" s="53" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D210" s="53">
+        <v>1</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F210" s="22" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>2256</v>
+      </c>
+      <c r="H210" s="53"/>
+    </row>
+    <row r="211" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A211" s="34"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H211" s="53"/>
+    </row>
+    <row r="212" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="34"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22" t="s">
+        <v>2253</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H212" s="53"/>
+    </row>
+    <row r="213" spans="1:8" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A213" s="34"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="53"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G213" s="22" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H213" s="53"/>
+    </row>
+    <row r="214" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="34"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G214" s="22" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H214" s="53"/>
+    </row>
+    <row r="215" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="34"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="53"/>
+    </row>
+    <row r="216" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="34"/>
+      <c r="B216" s="53" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C216" s="53" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D216" s="53">
+        <v>1</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G216" s="22" t="s">
+        <v>2273</v>
+      </c>
+      <c r="H216" s="53"/>
+    </row>
+    <row r="217" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="34"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="53"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G217" s="22" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H217" s="53"/>
+    </row>
+    <row r="218" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="34"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H218" s="53"/>
+    </row>
+    <row r="219" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="34"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="53"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G219" s="22" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H219" s="53"/>
+    </row>
+    <row r="220" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="34"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="53">
+        <v>2</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H220" s="53"/>
+    </row>
+    <row r="221" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="34"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="53"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B222" s="6" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D222" s="6">
+        <v>1</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D223" s="6">
+        <v>2</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F224" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="225" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F225" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="226" spans="4:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D226" s="6">
+        <v>3</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="227" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E227" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="228" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="229" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E229" s="22"/>
+      <c r="F229" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="230" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E230" s="22"/>
+      <c r="F230" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="231" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E231" s="22" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G231" s="22" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="232" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E232" s="22"/>
+      <c r="F232" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G232" s="22" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="233" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E233" s="22"/>
+      <c r="F233" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G233" s="22" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="234" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E234" s="22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F234" s="22" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G234" s="22" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="235" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E235" s="22"/>
+      <c r="F235" s="22" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G235" s="22" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="236" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E236" s="22"/>
+      <c r="F236" s="22" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="237" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E237" s="22" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F237" s="22"/>
+      <c r="G237" s="22" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="238" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E238" s="22" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F238" s="22" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G238" s="22" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="239" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E239" s="22"/>
+      <c r="F239" s="22" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G239" s="22"/>
+    </row>
+    <row r="240" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E240" s="22"/>
+      <c r="F240" s="22" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G240" s="22" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B242" s="6" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D242" s="6">
+        <v>1</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F243" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E244" s="7" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F245" s="7" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J2 H4:J23 H24:I30 H31:J100 H102:J221">
+    <cfRule type="cellIs" dxfId="11" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H222:J1048576">
+    <cfRule type="cellIs" dxfId="9" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C3 K3:IU3">
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:G3">
+    <cfRule type="cellIs" dxfId="5" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:J3">
+    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:J101">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>

--- a/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
@@ -34,7 +34,7 @@
     <definedName name="若玩家拥有的某经验药数量超过其堆叠上限_则分为两条显示_超出上限分条显示时_显示顺序无特殊需求">[1]宠物经验培养界面!#REF!</definedName>
     <definedName name="增加基本属性">[1]宠物详情界面!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="2675">
   <si>
     <t>caseID</t>
   </si>
@@ -9608,11 +9608,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看属性名称和属性数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在标题下方，具体位置看美术设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上到下属性依次为：体力-力量-智力-防御-速度-耐力-战后回血-生命值-物理攻击力-法术攻击力-受伤比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称左对齐，属性数值右对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体属性数值测试用例见伤害公式用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验培养界面测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在宠物详情界面点击经验条右侧“添加经验按钮”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面右侧变为经验培养界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宠物经验培养界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面中显示经验药条目列表，如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药条目显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有种类经验药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共有1种经验药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总过有3种以上经验药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共有2种经验药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示1个经验药条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示2个经验药条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示3个半经验药条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药个数对显示影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药数量为0也会显示该条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1个、B2个、C3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0个、Bx个、Cy个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ax个、B0个、Cy个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ax个、By个、C0个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、B、C经验药条目都显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药条目排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+100、B+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+100、B+50、C+150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序为A-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序为B-A-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药条目测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药道具icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合icon通用规则，但是不显示道具堆叠数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药A1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药A10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药道具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示经验药道具名称，读取item表name字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看属性名称和属性数值</t>
+    <t>查看经验道具名称显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示经验药A对应的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示经验药B对应的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有99999个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9620,23 +9844,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在标题下方，具体位置看美术设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从上到下属性依次为：体力-力量-智力-防御-速度-耐力-战后回血-生命值-物理攻击力-法术攻击力-受伤比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名称左对齐，属性数值右对齐</t>
+    <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9648,11 +9856,205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>显示在经验药名称后，连在一起显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体属性数值测试用例见伤害公式用例</t>
+    <t>查看经验药数量显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示*99999可以正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有0个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示*0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药增长数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在经验药名称下边一行，与经验药左对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“exp+XX”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示经验药拥有数量，格式为“*XXX”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药增长数值显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取item表中addAttrValue字段数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“exp+0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“exp+1”</t>
+  </si>
+  <si>
+    <t>显示为“exp+99”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“exp+9999”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会出现大于四位数的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看【使用】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在经验药条目下方居中位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮文字为【使用】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认字色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药数量=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药数量&gt;0，为N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后没有任何反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后宠物经验增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看左侧宠物详情界面宠物经验条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验条播放UI增长动画</t>
+  </si>
+  <si>
+    <t>查看经验条增长动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验条增长过程为使用的经验药对应的经验条长度一次性增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验药道具数量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量不变保持0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量变为N-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宠物经验获得情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有经验为X，获得经验后未升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有经验为X，获得经验后升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在经验药（exp+100）条目中点击【使用】按钮一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验变为X+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验变为100-（升级经验-X），宠物等级+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用经验药-点击操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9660,431 +10062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经验培养界面测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在宠物详情界面点击经验条右侧“添加经验按钮”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面右侧变为经验培养界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看宠物经验培养界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面中显示经验药条目列表，如图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药条目显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示所有种类经验药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共有1种经验药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总过有3种以上经验药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共有2种经验药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示1个经验药条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示2个经验药条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示3个半经验药条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药个数对显示影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药数量为0也会显示该条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1个、B2个、C3个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0个、Bx个、Cy个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ax个、B0个、Cy个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ax个、By个、C0个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A、B、C经验药条目都显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药条目排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照经验药增加的经验数值由小到大排列</t>
-  </si>
-  <si>
-    <t>A+100、B+1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+100、B+50、C+150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序为A-B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序为B-A-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药条目测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验要条目包含经验要道具icon、经验药道具名称*数量、经验增长数值、【使用】按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药道具icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合icon通用规则，但是不显示道具堆叠数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药A1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药A10个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon显示经验要A，不显示堆叠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药道具名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统字色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示经验药道具名称，读取item表name字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在经验药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验道具名称显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示经验药A对应的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示经验药B对应的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有10个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有99999个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在经验药名称后，连在一起显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药数量显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示*99999可以正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有0个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示*0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药增长数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在经验药名称下边一行，与经验药左对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“exp+XX”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示经验药拥有数量，格式为“*XXX”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药增长数值显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取item表中addAttrValue字段数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置为10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“exp+0”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“exp+1”</t>
-  </si>
-  <si>
-    <t>显示为“exp+99”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“exp+9999”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会出现大于四位数的配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看【使用】按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在经验药条目下方居中位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮文字为【使用】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统默认字色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药数量=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药数量&gt;0，为N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击后没有任何反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击后宠物经验增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看左侧宠物详情界面宠物经验条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验条播放UI增长动画</t>
-  </si>
-  <si>
-    <t>查看经验条增长动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验条增长过程为使用的经验药对应的经验条长度一次性增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验药道具数量变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量不变保持0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量变为N-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看宠物经验获得情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有经验为X，获得经验后未升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有经验为X，获得经验后升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在经验药（exp+100）条目中点击【使用】按钮一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验变为X+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验变为100-（升级经验-X），宠物等级+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用经验药-点击操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用经验药-长按操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10150,14 +10127,6 @@
   </si>
   <si>
     <t>宠物等级未达到玩家等级且未达到版本满级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮未禁用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮未正常样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10397,6 +10366,142 @@
   </si>
   <si>
     <t>宠物升级，经验条为空，多余经验作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据品质对应颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255 204 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-878</t>
+  </si>
+  <si>
+    <t>按照经验药增加的经验数值由小到大排列（定死）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药条目包含经验要道具icon、经验药道具名称*数量、经验增长数值、【使用】按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon显示经验药A，不显示堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon显示经验药A，不显示堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮为禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮为禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮为正常样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升级，经验条为空，多余经验作废，数值显示maxlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-879</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在经验药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-880</t>
+  </si>
+  <si>
+    <t>BG-881</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-883</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-884</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-889</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-890</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10948,12 +11053,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11006,6 +11105,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11013,7 +11118,133 @@
     <cellStyle name="常规_目录" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="230">
+  <dxfs count="256">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12233,6 +12464,114 @@
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -15589,7 +15928,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15612,9 +15951,9 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -15664,6 +16003,9 @@
       <c r="G3" s="7" t="s">
         <v>2437</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>2640</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="D4" s="6">
@@ -15675,6 +16017,9 @@
       <c r="G4" s="7" t="s">
         <v>2439</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>2640</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="6">
@@ -15689,6 +16034,9 @@
       <c r="G5" s="7" t="s">
         <v>2445</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>2640</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" s="7" t="s">
@@ -15697,13 +16045,19 @@
       <c r="G6" s="7" t="s">
         <v>2446</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>2640</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" s="7" t="s">
         <v>2443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>2447</v>
+        <v>2643</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -15711,7 +16065,10 @@
         <v>2444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>2644</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -15719,50 +16076,65 @@
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>2448</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>2449</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>2452</v>
+        <v>2451</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="F10" s="7" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>2453</v>
+        <v>2452</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>2454</v>
+        <v>2453</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="7" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>2457</v>
+        <v>2493</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="7" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>2457</v>
+        <v>2641</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E15" s="27" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
   </sheetData>
@@ -15771,10 +16143,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15789,10 +16161,10 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15815,9 +16187,9 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -15853,19 +16225,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>2462</v>
+        <v>2460</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -15873,10 +16248,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>2464</v>
+        <v>2462</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -15884,74 +16262,101 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>2466</v>
+        <v>2464</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" s="7" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>2470</v>
+        <v>2468</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F7" s="7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>2469</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>2471</v>
+      <c r="H7" s="6" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" s="7" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>2472</v>
+        <v>2470</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E9" s="7" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>2474</v>
+        <v>2472</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="7" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>2479</v>
+        <v>2477</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F11" s="7" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>2479</v>
+        <v>2477</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="7" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>2477</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>2479</v>
+      <c r="H12" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="7" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>2479</v>
+        <v>2477</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2640</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -15959,685 +16364,901 @@
         <v>4</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>2481</v>
+        <v>2647</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F15" s="7" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>2484</v>
+        <v>2481</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>2657</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F16" s="7" t="s">
+        <v>2480</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>2483</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
-        <v>2487</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>2486</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2648</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2487</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F20" s="7" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2649</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F21" s="7" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2650</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D22" s="6">
         <v>3</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2659</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F23" s="7" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2494</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F24" s="7" t="s">
         <v>1279</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2639</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F25" s="7" t="s">
         <v>1277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E26" s="7" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2499</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F27" s="7" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D28" s="6">
         <v>4</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>2505</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>2509</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F29" s="7" t="s">
+        <v>2506</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F30" s="7" t="s">
         <v>2507</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G30" s="7" t="s">
+        <v>2493</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F31" s="7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E32" s="7" t="s">
         <v>2511</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F29" s="7" t="s">
+      <c r="G32" s="7" t="s">
+        <v>2516</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F33" s="7" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>2512</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F30" s="7" t="s">
+      <c r="H33" s="6" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F34" s="7" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>2513</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F31" s="7" t="s">
+      <c r="H34" s="6" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F35" s="7" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>2514</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E32" s="7" t="s">
-        <v>2517</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>2521</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F33" s="7" t="s">
-        <v>2508</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F34" s="7" t="s">
-        <v>2509</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F35" s="7" t="s">
-        <v>2510</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D36" s="6">
         <v>5</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
+        <v>2518</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F37" s="7" t="s">
-        <v>2512</v>
+        <v>2506</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+        <v>2519</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F38" s="7" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F39" s="7" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E40" s="7" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F41" s="7" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>2529</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F42" s="7" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>2530</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F43" s="7" t="s">
+        <v>2526</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F44" s="7" t="s">
         <v>2527</v>
       </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E40" s="7" t="s">
+      <c r="G44" s="7" t="s">
+        <v>2532</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F45" s="7" t="s">
         <v>2528</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F41" s="7" t="s">
-        <v>2530</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F42" s="7" t="s">
-        <v>2531</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F43" s="7" t="s">
-        <v>2532</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F44" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>2533</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F45" s="7" t="s">
-        <v>2534</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D46" s="6">
         <v>6</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F47" s="7" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F48" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>2540</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="H48" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F49" s="7" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>2541</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F47" s="7" t="s">
-        <v>2542</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F48" s="7" t="s">
-        <v>2455</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F49" s="7" t="s">
-        <v>2543</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="2:9" ht="33" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2544</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F52" s="7" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2545</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+        <v>2547</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="33" x14ac:dyDescent="0.15">
       <c r="E54" s="7" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2549</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2551</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F56" s="7" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2552</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D57" s="6">
         <v>4</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F58" s="7" t="s">
+        <v>2555</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="6" t="s">
         <v>2560</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F58" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>2561</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B60" s="6" t="s">
-        <v>2566</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>2567</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>2568</v>
+        <v>2562</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2563</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F61" s="7" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2564</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D62" s="6">
         <v>2</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+        <v>2566</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="33" x14ac:dyDescent="0.15">
       <c r="E63" s="7" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2567</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D64" s="6">
         <v>3</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2551</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F65" s="7" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2568</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D66" s="6">
         <v>4</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+        <v>2570</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="33" x14ac:dyDescent="0.15">
       <c r="F67" s="7" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2571</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D68" s="6">
         <v>5</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2585</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F69" s="7" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2585</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F70" s="7" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2585</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F71" s="7" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2585</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>2579</v>
+        <v>2573</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2651</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F74" s="7" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2652</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>2667</v>
+      </c>
+      <c r="I74" s="40" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F75" s="7" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2652</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F76" s="7" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2653</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D77" s="6">
         <v>2</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2652</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F78" s="7" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2652</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>2667</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F79" s="7" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2652</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C80" s="5"/>
       <c r="F80" s="7" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2653</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D81" s="6">
         <v>3</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2631</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>2671</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F82" s="7" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+        <v>2632</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>2671</v>
+      </c>
+      <c r="I82" s="40" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B84" s="6" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>2575</v>
+        <v>2569</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>2641</v>
+        <v>2633</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>2642</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="2:9" ht="33" x14ac:dyDescent="0.15">
       <c r="F85" s="7" t="s">
-        <v>2643</v>
+        <v>2635</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+        <v>2654</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>2667</v>
+      </c>
+      <c r="I85" s="40" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F86" s="7" t="s">
-        <v>2644</v>
+        <v>2636</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>2646</v>
+        <v>2638</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I86" s="40" t="s">
+        <v>2668</v>
       </c>
     </row>
   </sheetData>
@@ -16645,17 +17266,52 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J81 H83:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:IU2 B2:G2 H83:J84 H15 J15 H1:J14 H16:J36 H58:J73 H56 H37 J37 H38:J55 J56:J57 H75:J77 H74 J74 H87:J1048576 H85:H86 J85:J86 H79:J80 J78 H81 J81">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I15" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-879"/>
+    <hyperlink ref="I56" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-880"/>
+    <hyperlink ref="I37" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-881"/>
+    <hyperlink ref="I74" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-883"/>
+    <hyperlink ref="I86" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-884"/>
+    <hyperlink ref="I85" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-889"/>
+    <hyperlink ref="I78" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-883"/>
+    <hyperlink ref="I81" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-890"/>
+    <hyperlink ref="I82" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-890"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -16669,14 +17325,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.125" style="81" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="81" customWidth="1"/>
-    <col min="4" max="5" width="51.125" style="81" customWidth="1"/>
-    <col min="6" max="8" width="8.875" style="81"/>
-    <col min="9" max="9" width="17.5" style="81" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="81" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="81"/>
+    <col min="1" max="1" width="18.125" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="79" customWidth="1"/>
+    <col min="4" max="5" width="51.125" style="79" customWidth="1"/>
+    <col min="6" max="8" width="8.875" style="79"/>
+    <col min="9" max="9" width="17.5" style="79" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="79" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
@@ -16685,396 +17341,396 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="77" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>2596</v>
+      </c>
+      <c r="H2" s="83" t="s">
         <v>2597</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="79"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
+      <c r="I2" s="83" t="s">
         <v>2598</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>2599</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>2600</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="L2" s="84" t="s">
         <v>2601</v>
       </c>
-      <c r="E2" s="84" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="85" t="s">
         <v>2602</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="B3" s="85" t="s">
         <v>2603</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="C3" s="85" t="s">
         <v>2604</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="D3" s="85" t="s">
         <v>2605</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="86">
+        <v>1</v>
+      </c>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+    </row>
+    <row r="4" spans="1:13" s="92" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="88" t="s">
         <v>2606</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="B4" s="88" t="s">
         <v>2607</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="C4" s="88" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>2608</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="89">
+        <v>1</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="85" t="s">
         <v>2609</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="87" t="s">
+      <c r="B5" s="85" t="s">
         <v>2610</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="C5" s="85" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>2611</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="85" t="s">
         <v>2612</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="B6" s="85" t="s">
         <v>2613</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="88">
+      <c r="C6" s="85" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86">
         <v>1</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" s="94" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="90" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="93" t="s">
         <v>2615</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="B7" s="93" t="s">
         <v>2616</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="91">
+      <c r="C7" s="93" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86">
         <v>1</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="93"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
-        <v>2617</v>
-      </c>
-      <c r="B5" s="87" t="s">
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="94" t="s">
         <v>2618</v>
       </c>
-      <c r="C5" s="87" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D5" s="87" t="s">
+      <c r="B8" s="94" t="s">
         <v>2619</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88">
+      <c r="C8" s="94" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="87" t="s">
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+    </row>
+    <row r="9" spans="1:13" s="96" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="85" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C9" s="85" t="s">
         <v>2620</v>
       </c>
-      <c r="B6" s="87" t="s">
-        <v>2621</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>2622</v>
-      </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88">
+      <c r="D9" s="85" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86">
         <v>1</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="95" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>2624</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D7" s="95" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+    </row>
+    <row r="10" spans="1:13" s="96" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="85" t="s">
         <v>2625</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88">
+      <c r="B10" s="85" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86">
         <v>1</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="96" t="s">
-        <v>2626</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>2627</v>
-      </c>
-      <c r="C8" s="96" t="s">
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="85" t="s">
         <v>2628</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="B11" s="94" t="s">
         <v>2629</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97">
+      <c r="C11" s="94" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95">
         <v>1</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-    </row>
-    <row r="9" spans="1:13" s="98" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="87" t="s">
-        <v>2630</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>2632</v>
-      </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88">
-        <v>1</v>
-      </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-    </row>
-    <row r="10" spans="1:13" s="98" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="87" t="s">
-        <v>2633</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>2634</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>2635</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88">
-        <v>1</v>
-      </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>2637</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>2638</v>
-      </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97">
-        <v>1</v>
-      </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17113,9 +17769,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -18908,42 +19564,42 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="229" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="227" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="13" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J4 H6:J10 H5 J5 H11 J11 H12:J49 H51:J52 H50 J50 H54:J56 H53 J53 J57 H58:J67 J68:J72 H73:J131 H132 J132 H59:H68 H133:J1048576">
-    <cfRule type="cellIs" dxfId="225" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="223" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H72">
-    <cfRule type="cellIs" dxfId="221" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18971,10 +19627,10 @@
   <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A152" sqref="A152:XFD183"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18997,9 +19653,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -19473,7 +20129,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D33" s="42"/>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
@@ -19486,7 +20142,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D34" s="42">
         <v>11</v>
       </c>
@@ -19498,7 +20154,7 @@
       </c>
       <c r="G34" s="44"/>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D35" s="42"/>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
@@ -19508,7 +20164,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D36" s="42">
         <v>12</v>
       </c>
@@ -19525,7 +20181,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
@@ -19538,7 +20194,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D38" s="42"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43" t="s">
@@ -19551,7 +20207,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D39" s="42">
         <v>13</v>
       </c>
@@ -19565,7 +20221,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
       <c r="F40" s="43" t="s">
@@ -19573,15 +20229,21 @@
       </c>
       <c r="G40" s="44"/>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D41" s="42"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43" t="s">
         <v>1122</v>
       </c>
       <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H41" s="6" t="s">
+        <v>2645</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D42" s="42"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43" t="s">
@@ -19591,7 +20253,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D43" s="42">
         <v>14</v>
       </c>
@@ -19608,7 +20270,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
@@ -19618,7 +20280,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D45" s="42"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43" t="s">
@@ -19628,7 +20290,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D46" s="42"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="s">
@@ -19636,7 +20298,7 @@
       </c>
       <c r="G46" s="44"/>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D47" s="42"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43" t="s">
@@ -19644,7 +20306,7 @@
       </c>
       <c r="G47" s="44"/>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D48" s="42"/>
       <c r="E48" s="43"/>
       <c r="F48" s="43" t="s">
@@ -21432,106 +22094,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H136:H151 H10:H38 H43:H49 H64:H66 H56:H59 H87:H132 H184:H1048576">
-    <cfRule type="cellIs" dxfId="219" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="217" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="215" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="27" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H8 H68:H77 H82">
-    <cfRule type="cellIs" dxfId="213" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="211" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H86">
-    <cfRule type="cellIs" dxfId="209" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="207" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H135">
-    <cfRule type="cellIs" dxfId="205" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H41">
-    <cfRule type="cellIs" dxfId="203" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="201" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H62">
-    <cfRule type="cellIs" dxfId="199" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="197" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H81">
-    <cfRule type="cellIs" dxfId="195" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21550,10 +22212,11 @@
     <hyperlink ref="I146" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-294"/>
     <hyperlink ref="I186" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-295"/>
     <hyperlink ref="I191" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-303"/>
+    <hyperlink ref="I41" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-878"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -21588,9 +22251,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -23773,210 +24436,210 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H73:H129">
-    <cfRule type="cellIs" dxfId="193" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="191" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="189" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137 H144 H151 H164 H171:H174 H181 H188 H195:H1048576 H153 H155 H157">
-    <cfRule type="cellIs" dxfId="187" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H8 H58:H72 H10:H56">
-    <cfRule type="cellIs" dxfId="185" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="183" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="181" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="179" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131:H136">
-    <cfRule type="cellIs" dxfId="177" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H143">
-    <cfRule type="cellIs" dxfId="175" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146:H150">
-    <cfRule type="cellIs" dxfId="173" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:H163">
-    <cfRule type="cellIs" dxfId="171" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166:H170">
-    <cfRule type="cellIs" dxfId="169" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:H180">
-    <cfRule type="cellIs" dxfId="167" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H183:H187">
-    <cfRule type="cellIs" dxfId="165" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:H194">
-    <cfRule type="cellIs" dxfId="163" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="161" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="cellIs" dxfId="159" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="157" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="155" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H175">
-    <cfRule type="cellIs" dxfId="153" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182">
-    <cfRule type="cellIs" dxfId="151" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="149" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="147" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H154">
-    <cfRule type="cellIs" dxfId="145" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156">
-    <cfRule type="cellIs" dxfId="143" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24025,9 +24688,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -25888,119 +26551,119 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H75:H90 H92:H99 H101:H107 H109:H132">
-    <cfRule type="cellIs" dxfId="141" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="139" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="137" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="27" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162">
-    <cfRule type="notContainsBlanks" dxfId="135" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="149" priority="25">
       <formula>LEN(TRIM(G162))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H1048576">
-    <cfRule type="cellIs" dxfId="134" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H8 H10:H11 H13:H41 H44:H58 H60:H70">
-    <cfRule type="cellIs" dxfId="132" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="130" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H74">
-    <cfRule type="cellIs" dxfId="128" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="126" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="122" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="120" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="118" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="116" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="114" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26063,9 +26726,9 @@
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -29380,178 +30043,178 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 K2:IU2 H15:J19 H28:J34 H27 J27 H21:J26 H20 J20 H36:J41 J35 H42 J42 H43:J44 H46:J58 H45 J45 H59 J59 H163:J164 H168:J174 I165:J167 J175:J176 H177:J202 J162 H204:J210 H203 J203 H219:J227 H218 J218 H216:J217 H215 J215 H212:J214 H211 J211">
-    <cfRule type="cellIs" dxfId="112" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="110" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J4 H6:J9 H5 J5 H14 J14 H61:J62 H60 J60 H66:J66 J63 J67 H68:J68 J78:J82 H83:J84 H78 H12:J13 H230:J1048576 I64:J65 H63:H65 H70:J77 H69 J69 H93:J97 H85:H92 J85:J92 H99:J99 H98 J98 H101:J104 H100 J100 J107:J161 J105 H106:J106">
-    <cfRule type="cellIs" dxfId="108" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="106" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H82">
-    <cfRule type="cellIs" dxfId="104" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J10">
-    <cfRule type="cellIs" dxfId="102" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H228:J229">
-    <cfRule type="cellIs" dxfId="100" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:J11">
-    <cfRule type="cellIs" dxfId="98" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="33" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="96" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="94" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:I111 H113:I113 H112 H115:I116 H114">
-    <cfRule type="cellIs" dxfId="92" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:I125 H127:I127 H126 H129:I130 H128">
-    <cfRule type="cellIs" dxfId="90" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135:I139 H141:I141 H140 H143:I144 H142">
-    <cfRule type="cellIs" dxfId="88" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149:I153 H155:I155 H154 H157:I158 H156">
-    <cfRule type="cellIs" dxfId="86" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="84" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117:I118 H120:I120">
-    <cfRule type="cellIs" dxfId="82" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="80" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131:I132 H134:I134">
-    <cfRule type="cellIs" dxfId="78" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="76" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:I146 H148:I148">
-    <cfRule type="cellIs" dxfId="74" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147">
-    <cfRule type="cellIs" dxfId="72" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:I160 H162:I162">
-    <cfRule type="cellIs" dxfId="70" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29622,9 +30285,9 @@
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -31338,50 +32001,50 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H61 H90:J135 I89:J89 H88">
-    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J4 H6:J8 H5 J5 J11 H14:J20 H55:J56 H58:J60 H57 J57 J61 H62:J69 J72:J76 H77:J83 H136 J136 H72 H137:J1048576 I12:J13 I9:J10 H9:H19 H22:J33 H21 J21 H35:J38 H34 J34 H40:J49 H39 J39 H51:J52 J50 H53:H54 J53:J54 H71:J71 H70 J70 H85:J87 H84 J84 J88">
-    <cfRule type="cellIs" dxfId="66" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H76">
-    <cfRule type="cellIs" dxfId="64" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 K2:IU2">
-    <cfRule type="cellIs" dxfId="62" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="60" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31431,9 +32094,9 @@
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -35108,106 +35771,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:IU2 K147:IU147 B2:G2 B147:G147 H1:J2 H44:J52 H55:J58 H4:J4 H61:J62 H5 J5 H6:J12 J13 H14:J28 H64:J65 J63 H31:J34 H36:J38 H35 J35 H39 J39 I42:J43 H62:H63 H67:J70 H66 J66 H72:J77 H71 J71 H79:J82 H78 J78 J83 H80:H83 H84:J89 H90 J90 H91:J95 H96:H99 J96:J100 H101:J113 H116:J137 H114 J114:J115 H144 J144 J138 H120:H138 H139:J143 H145:J165 H166 J166 H167:J179 H181:J181 H180 J180">
-    <cfRule type="cellIs" dxfId="56" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182:J186 H192:J247 H248 J248 H249:J1048576 I189:J191 H182:H191">
-    <cfRule type="cellIs" dxfId="54" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 K3:IU3">
-    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="50" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="cellIs" dxfId="48" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:J30">
-    <cfRule type="cellIs" dxfId="46" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:J41 H42:H43">
-    <cfRule type="cellIs" dxfId="44" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:J54">
-    <cfRule type="cellIs" dxfId="42" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:J60">
-    <cfRule type="cellIs" dxfId="40" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="38" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I187:J188">
-    <cfRule type="cellIs" dxfId="36" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35271,9 +35934,9 @@
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -39429,111 +40092,111 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J2 H4:J18 H44:J44 H113:J113 H25:J29 H19:H24 H30:I32 J37:J43 H33:H34 H45 J45:J46 H99:J99 H47:J93 H95:J96 H94 J94 H97:H98 J97:J98 H100 J100 H101:J108 H109:H110 J109:J110 H115:J120 H114 J114 H121 J121 H122:J161 J162:J169 H189:J202 H188 J188 H203 J203 H170:J187 H204:J231">
-    <cfRule type="cellIs" dxfId="30" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H232:J237 H238 J238 H257:J1048576 H256 J256 H239:J255">
-    <cfRule type="cellIs" dxfId="28" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 K3:IU3">
-    <cfRule type="cellIs" dxfId="26" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="24" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="cellIs" dxfId="22" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:J111 J112">
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G272">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="15">
       <formula>LEN(TRIM(G272))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I24">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H43">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H169">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6139" uniqueCount="3063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="3068">
   <si>
     <t>caseID</t>
   </si>
@@ -11724,6 +11724,24 @@
   </si>
   <si>
     <t>如图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2259</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2257</t>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12454,7 +12472,97 @@
     <cellStyle name="常规_目录" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="603">
+  <dxfs count="613">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -19988,7 +20096,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20063,6 +20171,9 @@
       <c r="G3" s="7" t="s">
         <v>1980</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D4" s="6">
@@ -20074,6 +20185,9 @@
       <c r="G4" s="7" t="s">
         <v>3050</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="6">
@@ -20088,6 +20202,9 @@
       <c r="G5" s="7" t="s">
         <v>3049</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F6" s="7" t="s">
@@ -20096,6 +20213,9 @@
       <c r="G6" s="7" t="s">
         <v>3052</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E7" s="7" t="s">
@@ -20107,6 +20227,9 @@
       <c r="G7" s="7" t="s">
         <v>3049</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F8" s="7" t="s">
@@ -20115,6 +20238,12 @@
       <c r="G8" s="7" t="s">
         <v>3054</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>3063</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>3064</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="6">
@@ -20128,6 +20257,9 @@
       </c>
       <c r="G9" s="7" t="s">
         <v>3056</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>3067</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -20138,6 +20270,9 @@
       <c r="G10" s="5" t="s">
         <v>3061</v>
       </c>
+      <c r="H10" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="E11" s="7" t="s">
@@ -20146,6 +20281,9 @@
       <c r="G11" s="7" t="s">
         <v>3058</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="5" t="s">
@@ -20154,6 +20292,9 @@
       <c r="G12" s="5" t="s">
         <v>3061</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="6">
@@ -20168,6 +20309,9 @@
       <c r="G13" s="7" t="s">
         <v>3062</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F14" s="7" t="s">
@@ -20176,6 +20320,9 @@
       <c r="G14" s="7" t="s">
         <v>1987</v>
       </c>
+      <c r="H14" s="6" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
@@ -20193,8 +20340,14 @@
       <c r="G16" s="7" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="6" t="s">
+        <v>3065</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -20204,8 +20357,11 @@
       <c r="G17" s="7" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D18" s="6">
         <v>3</v>
       </c>
@@ -20215,8 +20371,11 @@
       <c r="G18" s="7" t="s">
         <v>2169</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D19" s="6">
         <v>4</v>
       </c>
@@ -20226,8 +20385,11 @@
       <c r="G19" s="7" t="s">
         <v>2171</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D20" s="6">
         <v>5</v>
       </c>
@@ -20237,8 +20399,11 @@
       <c r="G20" s="7" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D21" s="6">
         <v>6</v>
       </c>
@@ -20248,8 +20413,11 @@
       <c r="G21" s="7" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E24" s="25" t="s">
         <v>1989</v>
       </c>
@@ -20259,17 +20427,21 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J1048576">
-    <cfRule type="cellIs" dxfId="73" priority="28" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J7 H9:J15 J8 H17:J1048576 J16 H4:H14 H16:H21">
+    <cfRule type="cellIs" dxfId="83" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-2259"/>
+    <hyperlink ref="I16" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-2257"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -21793,282 +21965,282 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:IX2 B2:J2 K94:M95 K26 M26 K1:M25 K27:M47 K69:M84 K67 K48 M48 K49:M66 M67:M68 K86:M88 K85 M85 K98:M1048576 K96:K97 M96:M97 K90:M91 M89 K92 M92">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68">
-    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H19">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H25">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H97">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H60">
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H69">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H82">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84:H87">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H15">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24671,10 +24843,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C184:C200 B160:B183 D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27221,50 +27393,50 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 N2:IX2 K13:M61 K145:M1048576">
-    <cfRule type="cellIs" dxfId="602" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2 I2:J2">
-    <cfRule type="cellIs" dxfId="600" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:M4 K6:M11 K5 M5 K12 M12 K63:M64 K62 M62 K66:M68 K65 M65 M69 K70:M79 M80:M84 K85:M143 K144 M144 K71:K80">
-    <cfRule type="cellIs" dxfId="598" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="17" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69">
-    <cfRule type="cellIs" dxfId="596" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81:K84">
-    <cfRule type="cellIs" dxfId="594" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="592" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30860,154 +31032,154 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 N2:IX2 K61:K63 K53:K56 K10:K36 K92:K144 K148:K1048576 K41:K46 H3:H52 H56:H161">
-    <cfRule type="cellIs" dxfId="590" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="588" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="586" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K8 K65:K82 K87">
-    <cfRule type="cellIs" dxfId="584" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="582" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88:K91">
-    <cfRule type="cellIs" dxfId="580" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="578" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K145:K147">
-    <cfRule type="cellIs" dxfId="576" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K39">
-    <cfRule type="cellIs" dxfId="574" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="572" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:K59">
-    <cfRule type="cellIs" dxfId="570" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="568" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:K86">
-    <cfRule type="cellIs" dxfId="566" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H55">
-    <cfRule type="cellIs" dxfId="564" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H166">
-    <cfRule type="cellIs" dxfId="562" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H170">
-    <cfRule type="cellIs" dxfId="560" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:H200">
-    <cfRule type="cellIs" dxfId="558" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202">
-    <cfRule type="cellIs" dxfId="556" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H203">
-    <cfRule type="cellIs" dxfId="554" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33611,354 +33783,354 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 N2:IX2 K12:K130">
-    <cfRule type="cellIs" dxfId="552" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="550" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="548" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138 K145 K152 K165 K172:K175 K182 K189 K196:K1048576 K154 K156 K158">
-    <cfRule type="cellIs" dxfId="546" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="88" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="89" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K10">
-    <cfRule type="cellIs" dxfId="544" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="86" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="87" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="542" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="80" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="81" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131">
-    <cfRule type="cellIs" dxfId="540" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="78" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="79" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:K137">
-    <cfRule type="cellIs" dxfId="538" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="76" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="77" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140:K144">
-    <cfRule type="cellIs" dxfId="536" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="74" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="75" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K147:K151">
-    <cfRule type="cellIs" dxfId="534" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="72" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="73" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160:K164">
-    <cfRule type="cellIs" dxfId="532" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="70" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="71" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K167:K171">
-    <cfRule type="cellIs" dxfId="530" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="68" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="69" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:K181">
-    <cfRule type="cellIs" dxfId="528" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="66" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="67" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K184:K188">
-    <cfRule type="cellIs" dxfId="526" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="64" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="65" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195">
-    <cfRule type="cellIs" dxfId="524" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="62" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="63" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139">
-    <cfRule type="cellIs" dxfId="522" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="60" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="61" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K146">
-    <cfRule type="cellIs" dxfId="520" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="59" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K159">
-    <cfRule type="cellIs" dxfId="518" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="56" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="57" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="cellIs" dxfId="516" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K176">
-    <cfRule type="cellIs" dxfId="514" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K183">
-    <cfRule type="cellIs" dxfId="512" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="510" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153">
-    <cfRule type="cellIs" dxfId="508" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="506" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="504" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="cellIs" dxfId="502" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H19">
-    <cfRule type="cellIs" dxfId="500" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="cellIs" dxfId="498" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="496" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="494" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="492" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="490" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="488" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="486" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="484" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="482" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="480" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="478" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="476" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H82">
-    <cfRule type="cellIs" dxfId="474" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H86">
-    <cfRule type="cellIs" dxfId="472" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H89">
-    <cfRule type="cellIs" dxfId="470" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="468" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:H122">
-    <cfRule type="cellIs" dxfId="466" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37738,575 +37910,575 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 O2:IY2 L151:L166 L168:L175 L177:L183 L6 L91:L117 K2 L185:L1048576 H195 H210 H217:H1048576">
-    <cfRule type="cellIs" dxfId="464" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="153" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="154" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="462" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="460" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="151" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="152" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G234 I234:K234">
-    <cfRule type="notContainsBlanks" dxfId="458" priority="150">
+    <cfRule type="notContainsBlanks" dxfId="468" priority="150">
       <formula>LEN(TRIM(G234))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L5 L8 L120:L134 L136:L146">
-    <cfRule type="cellIs" dxfId="457" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="146" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="147" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L135">
-    <cfRule type="cellIs" dxfId="455" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="144" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="145" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L147:L150">
-    <cfRule type="cellIs" dxfId="453" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="142" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="143" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="451" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="136" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="137" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L118">
-    <cfRule type="cellIs" dxfId="449" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="134" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="135" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L119">
-    <cfRule type="cellIs" dxfId="447" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="132" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="133" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L167">
-    <cfRule type="cellIs" dxfId="445" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="130" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="131" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L176">
-    <cfRule type="cellIs" dxfId="443" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="128" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="129" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L184">
-    <cfRule type="cellIs" dxfId="441" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="126" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="127" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:N90">
-    <cfRule type="cellIs" dxfId="439" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="124" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="125" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:N13 L15:N15 L14 N14 L17:N20 L16 N16 N23:N77 N21 L22:N22">
-    <cfRule type="cellIs" dxfId="437" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="122" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="123" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="cellIs" dxfId="435" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="96" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="97" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M27 L29:M29 L28 L31:M32 L30">
-    <cfRule type="cellIs" dxfId="433" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="120" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="121" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:M41 L43:M43 L42 L45:M46 L44">
-    <cfRule type="cellIs" dxfId="431" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="118" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="119" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:M55 L57:M57 L56 L59:M60 L58">
-    <cfRule type="cellIs" dxfId="429" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="116" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="117" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:M69 L71:M71 L70 L73:M74 L72">
-    <cfRule type="cellIs" dxfId="427" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="114" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="115" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="425" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="112" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="113" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34 L36:M36">
-    <cfRule type="cellIs" dxfId="423" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="110" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="111" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="421" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="108" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="109" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:M48 L50:M50">
-    <cfRule type="cellIs" dxfId="419" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="106" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="107" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="417" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="104" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="105" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:M62 L64:M64">
-    <cfRule type="cellIs" dxfId="415" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="102" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="103" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="cellIs" dxfId="413" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="100" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="101" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:M76 L78:M90">
-    <cfRule type="cellIs" dxfId="411" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="98" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="99" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H91 H97:H98 H101:H108 H123 H131 H147 H154 H161 H184:H188">
-    <cfRule type="cellIs" dxfId="409" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92:H95">
-    <cfRule type="cellIs" dxfId="407" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="405" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H100">
-    <cfRule type="cellIs" dxfId="403" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H113">
-    <cfRule type="cellIs" dxfId="401" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="399" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="397" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H122">
-    <cfRule type="cellIs" dxfId="395" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124:H125">
-    <cfRule type="cellIs" dxfId="393" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:H127">
-    <cfRule type="cellIs" dxfId="391" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H82">
-    <cfRule type="cellIs" dxfId="389" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H90">
-    <cfRule type="cellIs" dxfId="387" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="385" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="383" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="381" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="cellIs" dxfId="379" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H135">
-    <cfRule type="cellIs" dxfId="377" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="375" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="373" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="371" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="cellIs" dxfId="369" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule type="cellIs" dxfId="367" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="365" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="363" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="361" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="cellIs" dxfId="359" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="cellIs" dxfId="357" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="355" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194">
-    <cfRule type="cellIs" dxfId="353" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148:H153">
-    <cfRule type="cellIs" dxfId="351" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155">
-    <cfRule type="cellIs" dxfId="349" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156:H160">
-    <cfRule type="cellIs" dxfId="347" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="cellIs" dxfId="345" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163:H165">
-    <cfRule type="cellIs" dxfId="343" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166:H167">
-    <cfRule type="cellIs" dxfId="341" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H171">
-    <cfRule type="cellIs" dxfId="339" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H172:H177">
-    <cfRule type="cellIs" dxfId="337" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="335" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:H180">
-    <cfRule type="cellIs" dxfId="333" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H183">
-    <cfRule type="cellIs" dxfId="331" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="329" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:H193">
-    <cfRule type="cellIs" dxfId="327" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H196:H209">
-    <cfRule type="cellIs" dxfId="325" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="323" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42204,154 +42376,154 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 N2:IX2 K15:M19 K28:M34 K27 M27 K21:M26 K20 M20 K36:M41 M35 K42 M42 K43:M44 K46:M58 K45 M45 K59 M59 K142:M143 L144:M146 M154:M155 K183:M189 K182 M182 K197 M197 K195:M196 K194 M194 K191:M193 K190 M190 K156:M181 K198:M1048576 M102:M141 K85:K91 M85:M91 K147:M153 H11:H160">
-    <cfRule type="cellIs" dxfId="321" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="319" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:M4 K6:M9 K5 M5 K14 M14 K61:M62 K60 M60 K66:M66 M63 M67 K68:M68 M78:M82 K83:M84 K78 K12:M13 L64:M65 K63:K65 K70:M77 K69 M69 K92:M96 K98:M98 K97 M97 K100:M101 K99 M99">
-    <cfRule type="cellIs" dxfId="317" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="cellIs" dxfId="315" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:K82">
-    <cfRule type="cellIs" dxfId="313" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:M10">
-    <cfRule type="cellIs" dxfId="311" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:M11">
-    <cfRule type="cellIs" dxfId="309" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="307" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102:L106 K108:L108 K107 K110:L111 K109">
-    <cfRule type="cellIs" dxfId="305" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112:L116 K118:L118 K117 K120:L121 K119">
-    <cfRule type="cellIs" dxfId="303" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122:L126 K128:L128 K127 K130:L131 K129">
-    <cfRule type="cellIs" dxfId="301" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:L136 K138:L138 K137 K140:L141 K139">
-    <cfRule type="cellIs" dxfId="299" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H8">
-    <cfRule type="cellIs" dxfId="297" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H175 H177:H181 H183:H200">
-    <cfRule type="cellIs" dxfId="295" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204:H207">
-    <cfRule type="cellIs" dxfId="293" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="291" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182">
-    <cfRule type="cellIs" dxfId="289" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H167:H168">
-    <cfRule type="cellIs" dxfId="287" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161:H166">
-    <cfRule type="cellIs" dxfId="285" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44540,50 +44712,50 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K63 K92:M137 L91:M91 K90 K20:M28 K35:M51 H3:H94">
-    <cfRule type="cellIs" dxfId="283" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:M4 K6:M8 K5 M5 M11 K14:M19 K57:M58 K60:M62 K59 M59 M63 K64:M71 M74:M78 K79:M85 K138 M138 K74 K139:M1048576 L12:M13 L9:M10 K9:K19 K30:M33 K29 M29 K34 M34 K53:M54 M52 K55:K56 M55:M56 K73:M73 K72 M72 K87:M89 K86 M86 M90">
-    <cfRule type="cellIs" dxfId="281" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:K78">
-    <cfRule type="cellIs" dxfId="279" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 N2:IX2">
-    <cfRule type="cellIs" dxfId="277" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="275" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="273" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48678,442 +48850,442 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:IX2 N127:IX127 B2:G2 B127:G127 K1:M2 K4:M4 M5 K6:M7 K93 M93 K114 M114:M115 K124 M124 K134 M134 K135:M147 K149:M149 K148 M148 K105:M113 K125:M133 K94:M99 K116:M123 J5:K5 H5">
-    <cfRule type="cellIs" dxfId="271" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M150:M154 K160:M215 K216 M216 K217:M1048576 L157:M158 K150:K158 M159">
-    <cfRule type="cellIs" dxfId="269" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="137" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="138" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 N3:IX3">
-    <cfRule type="cellIs" dxfId="267" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="265" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="131" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="132" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M3">
-    <cfRule type="cellIs" dxfId="263" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="127" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="128" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:L41 K43:L43 K42 K45:L46 K44">
-    <cfRule type="cellIs" dxfId="261" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:L55 K57:L57 K56 K59:L60 K58">
-    <cfRule type="cellIs" dxfId="259" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:L69 K71:L71 K70 K73:L74 K72">
-    <cfRule type="cellIs" dxfId="257" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:L83 K85:L85 K84 K87:L88 K86">
-    <cfRule type="cellIs" dxfId="255" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155:M156">
-    <cfRule type="cellIs" dxfId="253" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="110" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="111" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115">
-    <cfRule type="cellIs" dxfId="251" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="105" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="106" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K159">
-    <cfRule type="cellIs" dxfId="249" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="101" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="102" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M92">
-    <cfRule type="cellIs" dxfId="247" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12 K13:M14 K8 K23:M27 K15:K22 M15:M22 K29:M29 K28 M28 K31:M34 K30 M30 M37:M91 M35 K36:M36">
-    <cfRule type="cellIs" dxfId="245" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="97" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="98" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K12">
-    <cfRule type="cellIs" dxfId="243" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91">
-    <cfRule type="cellIs" dxfId="241" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="239" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:L48 K50:L50">
-    <cfRule type="cellIs" dxfId="237" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="235" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:L62 K64:L64">
-    <cfRule type="cellIs" dxfId="233" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="231" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:L76 K78:L78">
-    <cfRule type="cellIs" dxfId="229" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77">
-    <cfRule type="cellIs" dxfId="227" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:L90 K92:L92">
-    <cfRule type="cellIs" dxfId="225" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100:K104">
-    <cfRule type="cellIs" dxfId="223" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:J104">
-    <cfRule type="cellIs" dxfId="221" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J2 H4:J4 H105:J114 H93:J93 H116:J149 H6:J7 I109:I117 H95:J99 I94:J94">
-    <cfRule type="cellIs" dxfId="219" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H160:J1048576 H150:J158 H150:H159">
-    <cfRule type="cellIs" dxfId="217" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="cellIs" dxfId="215" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J46 H44:H52">
-    <cfRule type="cellIs" dxfId="213" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:J53 H55:J55 I54:J54 I56:J60">
-    <cfRule type="cellIs" dxfId="211" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:J67 I70:J74 I65:J66 H69:J69 I68:J68">
-    <cfRule type="cellIs" dxfId="209" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:J81 I84:J88 H83:J83 I82:J82 I79:J80">
-    <cfRule type="cellIs" dxfId="207" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:J115">
-    <cfRule type="cellIs" dxfId="205" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:J159">
-    <cfRule type="cellIs" dxfId="203" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8 I36:J36 I13:J14 I31:J34 H15:J30">
-    <cfRule type="cellIs" dxfId="201" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J11 I12:J12">
-    <cfRule type="cellIs" dxfId="199" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:J91">
-    <cfRule type="cellIs" dxfId="197" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="cellIs" dxfId="195" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:J48 H50:J50">
-    <cfRule type="cellIs" dxfId="193" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:J49">
-    <cfRule type="cellIs" dxfId="191" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:J62 I64:J64">
-    <cfRule type="cellIs" dxfId="189" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:J63">
-    <cfRule type="cellIs" dxfId="187" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:J76 I78:J78">
-    <cfRule type="cellIs" dxfId="185" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:J77">
-    <cfRule type="cellIs" dxfId="183" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:J90 I92:J92">
-    <cfRule type="cellIs" dxfId="181" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100:H104">
-    <cfRule type="cellIs" dxfId="179" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="177" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H36">
-    <cfRule type="cellIs" dxfId="175" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="173" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84:H92">
-    <cfRule type="cellIs" dxfId="171" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:H80 H82">
-    <cfRule type="cellIs" dxfId="169" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="167" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H66">
-    <cfRule type="cellIs" dxfId="165" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="163" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52470,354 +52642,354 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:IX2 B2:J2 K1:M2 K4:M6 K21:M21 K81:M81 K7:L9 M14:M20 K10:K11 K22 M22:M23 K67:M67 K63:M64 K62 M62 K65:K66 M65:M66 K68 M68 K69:M76 K77:K78 M77:M78 K83:M88 K82 M82 K89 M89 K24:M61 K90:M123 K150:M1048576 K131:M148">
-    <cfRule type="cellIs" dxfId="161" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="130" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="131" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124:M129 K130 M130 K149 M149">
-    <cfRule type="cellIs" dxfId="159" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="128" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="129" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 N3:IX3">
-    <cfRule type="cellIs" dxfId="157" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="122" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="123" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:J3">
-    <cfRule type="cellIs" dxfId="155" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="124" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="125" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M3">
-    <cfRule type="cellIs" dxfId="153" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="120" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="121" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:M79 M80">
-    <cfRule type="cellIs" dxfId="151" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="100" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="101" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="149" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80">
-    <cfRule type="cellIs" dxfId="147" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K20">
-    <cfRule type="cellIs" dxfId="145" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H41 H57:H73">
-    <cfRule type="cellIs" dxfId="143" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H88">
-    <cfRule type="cellIs" dxfId="141" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="139" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="137" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="135" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="133" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="131" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="129" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="127" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="125" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="123" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="121" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="119" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="117" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="115" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="113" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="111" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110:H115">
-    <cfRule type="cellIs" dxfId="109" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="107" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="105" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="103" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H44">
-    <cfRule type="cellIs" dxfId="101" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H53">
-    <cfRule type="cellIs" dxfId="99" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:H56">
-    <cfRule type="cellIs" dxfId="97" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H108">
-    <cfRule type="cellIs" dxfId="95" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H123">
-    <cfRule type="cellIs" dxfId="93" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124:H129">
-    <cfRule type="cellIs" dxfId="91" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130:H141">
-    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="85" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="cellIs" dxfId="83" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H147">
-    <cfRule type="cellIs" dxfId="81" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="79" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149:H150">
-    <cfRule type="cellIs" dxfId="77" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H154:H159">
-    <cfRule type="cellIs" dxfId="75" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
+++ b/qa/01.测试用例/宠物系统/宠物界面/宠物界面测试用例.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="3071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="3074">
   <si>
     <t>caseID</t>
   </si>
@@ -11758,6 +11758,18 @@
   </si>
   <si>
     <t>按钮位于界面左上角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235
+BG-2552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2555</t>
+  </si>
+  <si>
+    <t>名称显示固定字色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12481,17 +12493,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -12500,7 +12512,25 @@
     <cellStyle name="常规_目录" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="603">
+  <dxfs count="611">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -16629,6 +16659,60 @@
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -17983,13 +18067,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>90472</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>151316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>305753</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>23160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18609,7 +18693,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1457162</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>209383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20095,9 +20179,9 @@
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -20404,10 +20488,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:IU2 B2:G2 H1:J7 H9:J15 J8 H17:J1048576 J16 H4:H14 H16:H21">
-    <cfRule type="cellIs" dxfId="73" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="29" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20453,9 +20537,9 @@
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -21941,282 +22025,282 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:IX2 B2:J2 K94:M95 K26 M26 K1:M25 K27:M47 K69:M84 K67 K48 M48 K49:M66 M67:M68 K86:M88 K85 M85 K98:M1048576 K96:K97 M96:M97 K90:M91 M89 K92 M92">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68">
-    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H19">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H25">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H97">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H60">
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H69">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H82">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84:H87">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H15">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24819,10 +24903,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C184:C200 B160:B183 D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24833,13 +24917,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32:G33"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -24865,9 +24949,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="6"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -25359,7 +25443,7 @@
       <c r="F32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="129"/>
+      <c r="G32" s="127"/>
       <c r="H32" s="6" t="s">
         <v>2900</v>
       </c>
@@ -25370,7 +25454,7 @@
       <c r="F33" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="129"/>
+      <c r="G33" s="127"/>
       <c r="H33" s="6" t="s">
         <v>2900</v>
       </c>
@@ -26016,14 +26100,11 @@
       <c r="D69" s="6">
         <v>6</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>182</v>
+      <c r="G69" s="128" t="s">
+        <v>3073</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>876</v>
@@ -26038,27 +26119,27 @@
       </c>
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F70" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>105</v>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="90" t="s">
+        <v>182</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>876</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="6" t="s">
-        <v>930</v>
-      </c>
+      <c r="L70" s="37"/>
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F71" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>106</v>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="90" t="s">
+        <v>105</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>876</v>
@@ -26070,11 +26151,12 @@
       </c>
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F72" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>107</v>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="90" t="s">
+        <v>106</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>876</v>
@@ -26086,11 +26168,12 @@
       </c>
     </row>
     <row r="73" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F73" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>108</v>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="90" t="s">
+        <v>107</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>876</v>
@@ -26102,11 +26185,12 @@
       </c>
     </row>
     <row r="74" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="F74" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>109</v>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="90" t="s">
+        <v>108</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>876</v>
@@ -26118,17 +26202,12 @@
       </c>
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D75" s="6">
-        <v>7</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>114</v>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="90" t="s">
+        <v>109</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>876</v>
@@ -26140,8 +26219,14 @@
       </c>
     </row>
     <row r="76" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D76" s="6">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="F76" s="5" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>114</v>
@@ -26157,10 +26242,10 @@
     </row>
     <row r="77" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>876</v>
@@ -26173,10 +26258,10 @@
     </row>
     <row r="78" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F78" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>876</v>
@@ -26189,10 +26274,10 @@
     </row>
     <row r="79" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F79" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>876</v>
@@ -26204,17 +26289,11 @@
       </c>
     </row>
     <row r="80" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D80" s="6">
-        <v>8</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="F80" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>876</v>
@@ -26222,18 +26301,21 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="L80" s="37" t="s">
-        <v>889</v>
+        <v>930</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D81" s="6">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="F81" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>876</v>
@@ -26249,10 +26331,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F82" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>876</v>
@@ -26268,10 +26350,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F83" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>876</v>
@@ -26287,10 +26369,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F84" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>876</v>
@@ -26305,30 +26387,33 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D85" s="6">
-        <v>9</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>139</v>
+      <c r="F85" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>855</v>
+        <v>124</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>2898</v>
+        <v>876</v>
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="6" t="s">
-        <v>876</v>
+        <v>878</v>
+      </c>
+      <c r="L85" s="37" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F86" s="5" t="s">
-        <v>140</v>
+      <c r="D86" s="6">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>141</v>
+        <v>855</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>2898</v>
@@ -26339,47 +26424,41 @@
         <v>876</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F87" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>2196</v>
+        <v>141</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K87" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="33" x14ac:dyDescent="0.15">
       <c r="F88" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>143</v>
+        <v>2196</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>876</v>
+        <v>2899</v>
       </c>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
-      <c r="K88" s="6" t="s">
-        <v>882</v>
-      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D89" s="6">
-        <v>10</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="F89" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>876</v>
@@ -26387,12 +26466,18 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="6" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D90" s="6">
+        <v>10</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>153</v>
@@ -26403,12 +26488,12 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="6" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F91" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>153</v>
@@ -26419,45 +26504,46 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="6" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F92" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>876</v>
+      </c>
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
-    </row>
-    <row r="93" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A93" s="27"/>
-      <c r="B93" s="35" t="s">
+      <c r="K92" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+    </row>
+    <row r="94" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="A94" s="27"/>
+      <c r="B94" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C94" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="35">
+      <c r="D94" s="35">
         <v>1</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E94" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="28" t="s">
+      <c r="F94" s="27"/>
+      <c r="G94" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A94" s="27"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>172</v>
       </c>
       <c r="I94" s="31"/>
       <c r="J94" s="31"/>
@@ -26469,10 +26555,10 @@
       <c r="D95" s="35"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I95" s="31"/>
       <c r="J95" s="31"/>
@@ -26484,10 +26570,10 @@
       <c r="D96" s="35"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I96" s="31"/>
       <c r="J96" s="31"/>
@@ -26496,15 +26582,13 @@
       <c r="A97" s="27"/>
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
-      <c r="D97" s="35">
-        <v>2</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="27"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="G97" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I97" s="31"/>
       <c r="J97" s="31"/>
@@ -26513,13 +26597,15 @@
       <c r="A98" s="27"/>
       <c r="B98" s="35"/>
       <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27" t="s">
-        <v>192</v>
-      </c>
+      <c r="D98" s="35">
+        <v>2</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" s="27"/>
       <c r="G98" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I98" s="31"/>
       <c r="J98" s="31"/>
@@ -26528,13 +26614,13 @@
       <c r="A99" s="27"/>
       <c r="B99" s="35"/>
       <c r="C99" s="35"/>
-      <c r="D99" s="27"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I99" s="31"/>
       <c r="J99" s="31"/>
@@ -26543,13 +26629,13 @@
       <c r="A100" s="27"/>
       <c r="B100" s="35"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
+      <c r="D100" s="27"/>
       <c r="E100" s="27"/>
       <c r="F100" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="31"/>
@@ -26558,15 +26644,13 @@
       <c r="A101" s="27"/>
       <c r="B101" s="35"/>
       <c r="C101" s="35"/>
-      <c r="D101" s="35">
-        <v>3</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F101" s="27"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="G101" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I101" s="31"/>
       <c r="J101" s="31"/>
@@ -26575,13 +26659,15 @@
       <c r="A102" s="27"/>
       <c r="B102" s="35"/>
       <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27" t="s">
-        <v>196</v>
-      </c>
+      <c r="D102" s="35">
+        <v>3</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="27"/>
       <c r="G102" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I102" s="31"/>
       <c r="J102" s="31"/>
@@ -26593,10 +26679,10 @@
       <c r="D103" s="35"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
@@ -26608,7 +26694,7 @@
       <c r="D104" s="35"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G104" s="28" t="s">
         <v>184</v>
@@ -26623,10 +26709,10 @@
       <c r="D105" s="35"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
@@ -26638,7 +26724,7 @@
       <c r="D106" s="35"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G106" s="28" t="s">
         <v>185</v>
@@ -26653,7 +26739,7 @@
       <c r="D107" s="35"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G107" s="28" t="s">
         <v>185</v>
@@ -26668,10 +26754,10 @@
       <c r="D108" s="35"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
@@ -26683,7 +26769,7 @@
       <c r="D109" s="35"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G109" s="28" t="s">
         <v>186</v>
@@ -26698,7 +26784,7 @@
       <c r="D110" s="35"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G110" s="28" t="s">
         <v>186</v>
@@ -26713,7 +26799,7 @@
       <c r="D111" s="35"/>
       <c r="E111" s="27"/>
       <c r="F111" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G111" s="28" t="s">
         <v>186</v>
@@ -26728,10 +26814,10 @@
       <c r="D112" s="35"/>
       <c r="E112" s="27"/>
       <c r="F112" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
@@ -26743,7 +26829,7 @@
       <c r="D113" s="35"/>
       <c r="E113" s="27"/>
       <c r="F113" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G113" s="28" t="s">
         <v>187</v>
@@ -26758,7 +26844,7 @@
       <c r="D114" s="35"/>
       <c r="E114" s="27"/>
       <c r="F114" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G114" s="28" t="s">
         <v>187</v>
@@ -26773,7 +26859,7 @@
       <c r="D115" s="35"/>
       <c r="E115" s="27"/>
       <c r="F115" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G115" s="28" t="s">
         <v>187</v>
@@ -26788,7 +26874,7 @@
       <c r="D116" s="35"/>
       <c r="E116" s="27"/>
       <c r="F116" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G116" s="28" t="s">
         <v>187</v>
@@ -26803,10 +26889,10 @@
       <c r="D117" s="35"/>
       <c r="E117" s="27"/>
       <c r="F117" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I117" s="31"/>
       <c r="J117" s="31"/>
@@ -26815,15 +26901,13 @@
       <c r="A118" s="27"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
-      <c r="D118" s="35">
-        <v>4</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="F118" s="27"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27" t="s">
+        <v>211</v>
+      </c>
       <c r="G118" s="28" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I118" s="31"/>
       <c r="J118" s="31"/>
@@ -26832,13 +26916,15 @@
       <c r="A119" s="27"/>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27" t="s">
-        <v>196</v>
-      </c>
+      <c r="D119" s="35">
+        <v>4</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F119" s="27"/>
       <c r="G119" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I119" s="31"/>
       <c r="J119" s="31"/>
@@ -26850,10 +26936,10 @@
       <c r="D120" s="35"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I120" s="31"/>
       <c r="J120" s="31"/>
@@ -26865,10 +26951,10 @@
       <c r="D121" s="35"/>
       <c r="E121" s="27"/>
       <c r="F121" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
@@ -26880,10 +26966,10 @@
       <c r="D122" s="35"/>
       <c r="E122" s="27"/>
       <c r="F122" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
@@ -26895,10 +26981,10 @@
       <c r="D123" s="35"/>
       <c r="E123" s="27"/>
       <c r="F123" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
@@ -26910,10 +26996,10 @@
       <c r="D124" s="35"/>
       <c r="E124" s="27"/>
       <c r="F124" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
@@ -26925,10 +27011,10 @@
       <c r="D125" s="35"/>
       <c r="E125" s="27"/>
       <c r="F125" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
@@ -26940,10 +27026,10 @@
       <c r="D126" s="35"/>
       <c r="E126" s="27"/>
       <c r="F126" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
@@ -26955,10 +27041,10 @@
       <c r="D127" s="35"/>
       <c r="E127" s="27"/>
       <c r="F127" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
@@ -26970,142 +27056,141 @@
       <c r="D128" s="35"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
       <c r="E129" s="27"/>
       <c r="F129" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I129" s="31"/>
       <c r="J129" s="31"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="27"/>
       <c r="F130" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I130" s="31"/>
       <c r="J130" s="31"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="27"/>
       <c r="F132" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I132" s="31"/>
       <c r="J132" s="31"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
       <c r="E133" s="27"/>
       <c r="F133" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I133" s="31"/>
       <c r="J133" s="31"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
       <c r="E134" s="27"/>
       <c r="F134" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I134" s="31"/>
       <c r="J134" s="31"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
-    </row>
-    <row r="136" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="B136" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>2898</v>
-      </c>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A135" s="27"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I136" s="22"/>
       <c r="J136" s="22"/>
-      <c r="K136" s="6" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="B137" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="F137" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>2898</v>
@@ -27116,12 +27201,12 @@
         <v>882</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F138" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>2898</v>
@@ -27132,15 +27217,15 @@
         <v>882</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="F139" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>2871</v>
+        <v>2898</v>
       </c>
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
@@ -27148,21 +27233,15 @@
         <v>882</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D140" s="6">
-        <v>2</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>165</v>
+    <row r="140" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="F140" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>2898</v>
+        <v>2871</v>
       </c>
       <c r="I140" s="22"/>
       <c r="J140" s="22"/>
@@ -27170,12 +27249,18 @@
         <v>882</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D141" s="6">
+        <v>2</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="F141" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>2898</v>
@@ -27186,65 +27271,62 @@
         <v>882</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F142" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>2898</v>
+      </c>
       <c r="I142" s="22"/>
       <c r="J142" s="22"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B143" s="6" t="s">
+      <c r="K142" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I143" s="22"/>
+      <c r="J143" s="22"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B144" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D144" s="6">
         <v>1</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F144" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H143" s="6" t="s">
+      <c r="H144" s="6" t="s">
         <v>2902</v>
       </c>
-      <c r="I143" s="22">
+      <c r="I144" s="22">
         <v>1532</v>
       </c>
-      <c r="J143" s="22"/>
-      <c r="K143" s="6" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F144" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="H144" s="102" t="s">
-        <v>2903</v>
-      </c>
-      <c r="I144" s="22"/>
       <c r="J144" s="22"/>
       <c r="K144" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="L144" s="37" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="145" spans="4:11" x14ac:dyDescent="0.15">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="145" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F145" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>227</v>
+        <v>893</v>
       </c>
       <c r="H145" s="102" t="s">
         <v>2903</v>
@@ -27252,21 +27334,18 @@
       <c r="I145" s="22"/>
       <c r="J145" s="22"/>
       <c r="K145" s="6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="146" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D146" s="6">
-        <v>2</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>228</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="L145" s="37" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="146" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F146" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H146" s="102" t="s">
         <v>2903</v>
@@ -27277,12 +27356,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="147" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="147" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D147" s="6">
+        <v>2</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="F147" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H147" s="102" t="s">
         <v>2903</v>
@@ -27293,12 +27378,12 @@
         <v>927</v>
       </c>
     </row>
-    <row r="148" spans="4:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F148" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H148" s="102" t="s">
         <v>2903</v>
@@ -27309,12 +27394,12 @@
         <v>927</v>
       </c>
     </row>
-    <row r="149" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:12" ht="33" x14ac:dyDescent="0.15">
       <c r="F149" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H149" s="102" t="s">
         <v>2903</v>
@@ -27325,15 +27410,12 @@
         <v>927</v>
       </c>
     </row>
-    <row r="150" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D150" s="6">
-        <v>3</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>237</v>
+    <row r="150" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="F150" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H150" s="102" t="s">
         <v>2903</v>
@@ -27344,15 +27426,15 @@
         <v>927</v>
       </c>
     </row>
-    <row r="151" spans="4:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D151" s="6">
-        <v>4</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>239</v>
+        <v>3</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H151" s="102" t="s">
         <v>2903</v>
@@ -27360,6 +27442,25 @@
       <c r="I151" s="22"/>
       <c r="J151" s="22"/>
       <c r="K151" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="152" spans="4:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="D152" s="6">
+        <v>4</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H152" s="102" t="s">
+        <v>2903</v>
+      </c>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="6" t="s">
         <v>927</v>
       </c>
     </row>
@@ -27368,51 +27469,51 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C2 N2:IX2 K13:M61 K145:M1048576">
-    <cfRule type="cellIs" dxfId="602" priority="18" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B2:C2 N2:IX2 K13:M61 K146:M1048576">
+    <cfRule type="cellIs" dxfId="604" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2 I2:J2">
-    <cfRule type="cellIs" dxfId="600" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:M4 K6:M11 K5 M5 K12 M12 K63:M64 K62 M62 K66:M68 K65 M65 M69 K70:M79 M80:M84 K85:M143 K144 M144 K71:K80">
-    <cfRule type="cellIs" dxfId="598" priority="16" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:M4 K6:M11 K5 M5 K12 M12 K63:M64 K62 M62 K66:M68 K65 M65 M69:M70 K71:M80 M81:M85 K86:M144 K145 M145 K72:K81">
+    <cfRule type="cellIs" dxfId="600" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="17" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="cellIs" dxfId="596" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K69:K70">
+    <cfRule type="cellIs" dxfId="598" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K84">
-    <cfRule type="cellIs" dxfId="594" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K82:K85">
+    <cfRule type="cellIs" dxfId="596" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="592" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27422,12 +27523,12 @@
     <hyperlink ref="L62" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-278"/>
     <hyperlink ref="L65" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-279"/>
     <hyperlink ref="L69" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-279"/>
-    <hyperlink ref="L80" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-280"/>
-    <hyperlink ref="L81" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-280"/>
-    <hyperlink ref="L82" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-280"/>
-    <hyperlink ref="L83" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-280"/>
-    <hyperlink ref="L84" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-280"/>
-    <hyperlink ref="L144" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-281"/>
+    <hyperlink ref="L81" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-280"/>
+    <hyperlink ref="L82" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-280"/>
+    <hyperlink ref="L83" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-280"/>
+    <hyperlink ref="L84" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-280"/>
+    <hyperlink ref="L85" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-280"/>
+    <hyperlink ref="L145" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-281"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -27440,10 +27541,10 @@
   <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -27467,9 +27568,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -28261,10 +28362,10 @@
     <row r="43" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D43" s="44"/>
       <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="128" t="s">
         <v>349</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="127" t="s">
         <v>2907</v>
       </c>
       <c r="H43" s="6" t="s">
@@ -29527,18 +29628,18 @@
         <v>882</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:11" ht="33" x14ac:dyDescent="0.15">
       <c r="F120" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G120" s="129" t="s">
+      <c r="G120" s="127" t="s">
         <v>3063</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>2471</v>
       </c>
-      <c r="I120" s="22">
-        <v>1235</v>
+      <c r="I120" s="22" t="s">
+        <v>3071</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="6" t="s">
@@ -29565,28 +29666,32 @@
       <c r="D122" s="6">
         <v>5</v>
       </c>
-      <c r="E122" s="130" t="s">
+      <c r="E122" s="128" t="s">
         <v>3064</v>
       </c>
-      <c r="F122" s="130" t="s">
+      <c r="F122" s="128" t="s">
         <v>3065</v>
       </c>
-      <c r="G122" s="129" t="s">
+      <c r="G122" s="127" t="s">
         <v>2191</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="6" t="s">
+        <v>876</v>
+      </c>
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E123" s="130"/>
-      <c r="F123" s="130" t="s">
+      <c r="E123" s="128"/>
+      <c r="F123" s="128" t="s">
         <v>3066</v>
       </c>
-      <c r="G123" s="130" t="s">
+      <c r="G123" s="128" t="s">
         <v>3067</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123" s="6" t="s">
+        <v>876</v>
+      </c>
       <c r="I123" s="23"/>
       <c r="J123" s="23"/>
     </row>
@@ -31010,155 +31115,155 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:C2 N2:IX2 K59:K61 K51:K54 K10:K36 K90:K144 K148:K1048576 H54:H161 K41:K44 H3:H50">
-    <cfRule type="cellIs" dxfId="590" priority="44" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B2:C2 N2:IX2 K59:K61 K51:K54 K10:K36 K90:K144 K148:K1048576 K41:K44 H3:H50 H54:H161">
+    <cfRule type="cellIs" dxfId="592" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="588" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="586" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K8 K63:K80 K85">
-    <cfRule type="cellIs" dxfId="584" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="cellIs" dxfId="582" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K86:K89">
-    <cfRule type="cellIs" dxfId="580" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="578" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K145:K147">
-    <cfRule type="cellIs" dxfId="576" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K39">
-    <cfRule type="cellIs" dxfId="574" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="572" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:K57">
-    <cfRule type="cellIs" dxfId="570" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="568" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81:K84">
-    <cfRule type="cellIs" dxfId="566" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H53">
-    <cfRule type="cellIs" dxfId="564" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H166">
-    <cfRule type="cellIs" dxfId="562" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H170">
-    <cfRule type="cellIs" dxfId="560" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:H200">
-    <cfRule type="cellIs" dxfId="558" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202">
-    <cfRule type="cellIs" dxfId="556" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H203">
-    <cfRule type="cellIs" dxfId="554" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31216,9 +31321,9 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -33762,354 +33867,354 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 N2:IX2 K12:K130">
-    <cfRule type="cellIs" dxfId="552" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="550" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="548" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138 K145 K152 K165 K172:K175 K182 K189 K196:K1048576 K154 K156 K158">
-    <cfRule type="cellIs" dxfId="546" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="88" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="89" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K10">
-    <cfRule type="cellIs" dxfId="544" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="86" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="87" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="542" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="80" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="81" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131">
-    <cfRule type="cellIs" dxfId="540" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="78" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="79" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:K137">
-    <cfRule type="cellIs" dxfId="538" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="76" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="77" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140:K144">
-    <cfRule type="cellIs" dxfId="536" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="74" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="75" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K147:K151">
-    <cfRule type="cellIs" dxfId="534" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="72" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="73" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160:K164">
-    <cfRule type="cellIs" dxfId="532" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="70" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="71" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K167:K171">
-    <cfRule type="cellIs" dxfId="530" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="68" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="69" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K177:K181">
-    <cfRule type="cellIs" dxfId="528" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="66" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="67" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K184:K188">
-    <cfRule type="cellIs" dxfId="526" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="64" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="65" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191:K195">
-    <cfRule type="cellIs" dxfId="524" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="62" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="63" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139">
-    <cfRule type="cellIs" dxfId="522" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="60" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="61" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K146">
-    <cfRule type="cellIs" dxfId="520" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="59" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K159">
-    <cfRule type="cellIs" dxfId="518" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="56" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="57" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K166">
-    <cfRule type="cellIs" dxfId="516" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K176">
-    <cfRule type="cellIs" dxfId="514" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K183">
-    <cfRule type="cellIs" dxfId="512" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="cellIs" dxfId="510" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K153">
-    <cfRule type="cellIs" dxfId="508" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K155">
-    <cfRule type="cellIs" dxfId="506" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="504" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="cellIs" dxfId="502" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H19">
-    <cfRule type="cellIs" dxfId="500" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="cellIs" dxfId="498" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="496" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="494" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="492" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="490" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="488" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="486" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="484" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="482" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="480" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="478" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="476" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H82">
-    <cfRule type="cellIs" dxfId="474" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H86">
-    <cfRule type="cellIs" dxfId="472" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H89">
-    <cfRule type="cellIs" dxfId="470" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="468" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:H122">
-    <cfRule type="cellIs" dxfId="466" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34162,9 +34267,9 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="H1" s="6"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -37889,575 +37994,575 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 O2:IY2 L151:L166 L168:L175 L177:L183 L6 L91:L117 K2 L185:L1048576 H195 H210 H217:H1048576">
-    <cfRule type="cellIs" dxfId="464" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="153" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="154" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="462" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="460" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="151" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="152" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G234 I234:K234">
-    <cfRule type="notContainsBlanks" dxfId="458" priority="150">
+    <cfRule type="notContainsBlanks" dxfId="460" priority="150">
       <formula>LEN(TRIM(G234))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L5 L8 L120:L134 L136:L146">
-    <cfRule type="cellIs" dxfId="457" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="146" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="147" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L135">
-    <cfRule type="cellIs" dxfId="455" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="144" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="145" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L147:L150">
-    <cfRule type="cellIs" dxfId="453" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="142" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="143" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="451" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="136" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="137" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L118">
-    <cfRule type="cellIs" dxfId="449" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="134" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="135" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L119">
-    <cfRule type="cellIs" dxfId="447" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="132" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="133" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L167">
-    <cfRule type="cellIs" dxfId="445" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="130" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="131" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L176">
-    <cfRule type="cellIs" dxfId="443" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="128" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="129" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L184">
-    <cfRule type="cellIs" dxfId="441" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="126" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="127" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:N90">
-    <cfRule type="cellIs" dxfId="439" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="124" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="125" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:N13 L15:N15 L14 N14 L17:N20 L16 N16 N23:N77 N21 L22:N22">
-    <cfRule type="cellIs" dxfId="437" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="122" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="123" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="cellIs" dxfId="435" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="96" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="97" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M27 L29:M29 L28 L31:M32 L30">
-    <cfRule type="cellIs" dxfId="433" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="120" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="121" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:M41 L43:M43 L42 L45:M46 L44">
-    <cfRule type="cellIs" dxfId="431" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="118" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="119" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:M55 L57:M57 L56 L59:M60 L58">
-    <cfRule type="cellIs" dxfId="429" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="116" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="117" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:M69 L71:M71 L70 L73:M74 L72">
-    <cfRule type="cellIs" dxfId="427" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="114" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="115" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="425" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="112" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="113" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M34 L36:M36">
-    <cfRule type="cellIs" dxfId="423" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="110" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="111" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="421" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="108" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="109" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:M48 L50:M50">
-    <cfRule type="cellIs" dxfId="419" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="106" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="107" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="417" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="104" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="105" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:M62 L64:M64">
-    <cfRule type="cellIs" dxfId="415" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="102" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="103" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="cellIs" dxfId="413" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="100" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="101" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:M76 L78:M90">
-    <cfRule type="cellIs" dxfId="411" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="98" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="99" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H91 H97:H98 H101:H108 H123 H131 H147 H154 H161 H184:H188">
-    <cfRule type="cellIs" dxfId="409" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92:H95">
-    <cfRule type="cellIs" dxfId="407" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="405" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H100">
-    <cfRule type="cellIs" dxfId="403" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H113">
-    <cfRule type="cellIs" dxfId="401" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="399" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="397" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H122">
-    <cfRule type="cellIs" dxfId="395" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124:H125">
-    <cfRule type="cellIs" dxfId="393" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:H127">
-    <cfRule type="cellIs" dxfId="391" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H82">
-    <cfRule type="cellIs" dxfId="389" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H90">
-    <cfRule type="cellIs" dxfId="387" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="385" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="383" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="381" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="cellIs" dxfId="379" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H135">
-    <cfRule type="cellIs" dxfId="377" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="375" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="373" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="371" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="cellIs" dxfId="369" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule type="cellIs" dxfId="367" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="365" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="363" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="361" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="cellIs" dxfId="359" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="cellIs" dxfId="357" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="355" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194">
-    <cfRule type="cellIs" dxfId="353" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148:H153">
-    <cfRule type="cellIs" dxfId="351" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155">
-    <cfRule type="cellIs" dxfId="349" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156:H160">
-    <cfRule type="cellIs" dxfId="347" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="cellIs" dxfId="345" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163:H165">
-    <cfRule type="cellIs" dxfId="343" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166:H167">
-    <cfRule type="cellIs" dxfId="341" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H171">
-    <cfRule type="cellIs" dxfId="339" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H172:H177">
-    <cfRule type="cellIs" dxfId="337" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="335" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:H180">
-    <cfRule type="cellIs" dxfId="333" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H183">
-    <cfRule type="cellIs" dxfId="331" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="329" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:H193">
-    <cfRule type="cellIs" dxfId="327" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H196:H209">
-    <cfRule type="cellIs" dxfId="325" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H211:H216">
-    <cfRule type="cellIs" dxfId="323" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38520,9 +38625,9 @@
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -42355,154 +42460,154 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 N2:IX2 K15:M19 K28:M34 K27 M27 K21:M26 K20 M20 K36:M41 M35 K42 M42 K43:M44 K46:M58 K45 M45 K59 M59 K142:M143 L144:M146 M154:M155 K183:M189 K182 M182 K197 M197 K195:M196 K194 M194 K191:M193 K190 M190 K156:M181 K198:M1048576 M102:M141 K85:K91 M85:M91 K147:M153 H11:H160">
-    <cfRule type="cellIs" dxfId="321" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="319" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:M4 K6:M9 K5 M5 K14 M14 K61:M62 K60 M60 K66:M66 M63 M67 K68:M68 M78:M82 K83:M84 K78 K12:M13 L64:M65 K63:K65 K70:M77 K69 M69 K92:M96 K98:M98 K97 M97 K100:M101 K99 M99">
-    <cfRule type="cellIs" dxfId="317" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="cellIs" dxfId="315" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:K82">
-    <cfRule type="cellIs" dxfId="313" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:M10">
-    <cfRule type="cellIs" dxfId="311" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:M11">
-    <cfRule type="cellIs" dxfId="309" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="307" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102:L106 K108:L108 K107 K110:L111 K109">
-    <cfRule type="cellIs" dxfId="305" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112:L116 K118:L118 K117 K120:L121 K119">
-    <cfRule type="cellIs" dxfId="303" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122:L126 K128:L128 K127 K130:L131 K129">
-    <cfRule type="cellIs" dxfId="301" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132:L136 K138:L138 K137 K140:L141 K139">
-    <cfRule type="cellIs" dxfId="299" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H8">
-    <cfRule type="cellIs" dxfId="297" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H175 H177:H181 H183:H200">
-    <cfRule type="cellIs" dxfId="295" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204:H207">
-    <cfRule type="cellIs" dxfId="293" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="291" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182">
-    <cfRule type="cellIs" dxfId="289" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H167:H168">
-    <cfRule type="cellIs" dxfId="287" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161:H166">
-    <cfRule type="cellIs" dxfId="285" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42570,9 +42675,9 @@
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -44691,50 +44796,50 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K63 K92:M137 L91:M91 K90 K20:M28 K35:M51 H3:H94">
-    <cfRule type="cellIs" dxfId="283" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:M4 K6:M8 K5 M5 M11 K14:M19 K57:M58 K60:M62 K59 M59 M63 K64:M71 M74:M78 K79:M85 K138 M138 K74 K139:M1048576 L12:M13 L9:M10 K9:K19 K30:M33 K29 M29 K34 M34 K53:M54 M52 K55:K56 M55:M56 K73:M73 K72 M72 K87:M89 K86 M86 M90">
-    <cfRule type="cellIs" dxfId="281" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:K78">
-    <cfRule type="cellIs" dxfId="279" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 N2:IX2">
-    <cfRule type="cellIs" dxfId="277" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J2">
-    <cfRule type="cellIs" dxfId="275" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="273" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44758,10 +44863,10 @@
   <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -44786,9 +44891,9 @@
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -46829,7 +46934,7 @@
       <c r="F102" s="87" t="s">
         <v>632</v>
       </c>
-      <c r="G102" s="129" t="s">
+      <c r="G102" s="127" t="s">
         <v>3069</v>
       </c>
       <c r="H102" s="44" t="s">
@@ -46844,11 +46949,14 @@
       <c r="F103" s="87" t="s">
         <v>611</v>
       </c>
-      <c r="G103" s="129" t="s">
+      <c r="G103" s="127" t="s">
         <v>3068</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>2504</v>
+        <v>878</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>3072</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>876</v>
@@ -48814,442 +48922,442 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:IX2 N126:IX126 B2:G2 B126:G126 K1:M2 K4:M4 M5 K6:M7 K93 M93 K113 M113:M114 K123 M123 K133 M133 K134:M146 K148:M148 K147 M147 K104:M112 K124:M132 K94:M99 K115:M122 J5:K5 H5">
-    <cfRule type="cellIs" dxfId="271" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M149:M153 K159:M214 K215 M215 K216:M1048576 L156:M157 K149:K157 M158">
-    <cfRule type="cellIs" dxfId="269" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="137" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="138" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 N3:IX3">
-    <cfRule type="cellIs" dxfId="267" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="265" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="131" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="132" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M3">
-    <cfRule type="cellIs" dxfId="263" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="127" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="128" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:L41 K43:L43 K42 K45:L46 K44">
-    <cfRule type="cellIs" dxfId="261" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:L55 K57:L57 K56 K59:L60 K58">
-    <cfRule type="cellIs" dxfId="259" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:L69 K71:L71 K70 K73:L74 K72">
-    <cfRule type="cellIs" dxfId="257" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:L83 K85:L85 K84 K87:L88 K86">
-    <cfRule type="cellIs" dxfId="255" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L154:M155">
-    <cfRule type="cellIs" dxfId="253" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="110" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="111" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="cellIs" dxfId="251" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="105" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="106" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K158">
-    <cfRule type="cellIs" dxfId="249" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="101" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="102" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M92">
-    <cfRule type="cellIs" dxfId="247" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12 K13:M14 K8 K23:M27 K15:K22 M15:M22 K29:M29 K28 M28 K31:M34 K30 M30 M37:M91 M35 K36:M36">
-    <cfRule type="cellIs" dxfId="245" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="97" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="98" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K12">
-    <cfRule type="cellIs" dxfId="243" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91">
-    <cfRule type="cellIs" dxfId="241" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="239" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:L48 K50:L50">
-    <cfRule type="cellIs" dxfId="237" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="235" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:L62 K64:L64">
-    <cfRule type="cellIs" dxfId="233" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="231" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:L76 K78:L78">
-    <cfRule type="cellIs" dxfId="229" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K77">
-    <cfRule type="cellIs" dxfId="227" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:L90 K92:L92">
-    <cfRule type="cellIs" dxfId="225" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100:K103">
-    <cfRule type="cellIs" dxfId="223" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I100:J103">
-    <cfRule type="cellIs" dxfId="221" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I100:J102 J103">
+    <cfRule type="cellIs" dxfId="223" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J2 H4:J4 H104:J113 H93:J93 H115:J148 H6:J7 I108:I116 H95:J99 I94:J94">
-    <cfRule type="cellIs" dxfId="219" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:J1048576 H149:J157 H149:H158">
-    <cfRule type="cellIs" dxfId="217" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="cellIs" dxfId="215" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J46 H44:H52">
-    <cfRule type="cellIs" dxfId="213" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:J53 H55:J55 I54:J54 I56:J60">
-    <cfRule type="cellIs" dxfId="211" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:J67 I70:J74 I65:J66 H69:J69 I68:J68">
-    <cfRule type="cellIs" dxfId="209" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:J81 I84:J88 H83:J83 I82:J82 I79:J80">
-    <cfRule type="cellIs" dxfId="207" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:J114">
-    <cfRule type="cellIs" dxfId="205" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158:J158">
-    <cfRule type="cellIs" dxfId="203" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8 I36:J36 I13:J14 I31:J34 H15:J30">
-    <cfRule type="cellIs" dxfId="201" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J11 I12:J12">
-    <cfRule type="cellIs" dxfId="199" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91:J91">
-    <cfRule type="cellIs" dxfId="197" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="cellIs" dxfId="195" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:J48 H50:J50">
-    <cfRule type="cellIs" dxfId="193" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:J49">
-    <cfRule type="cellIs" dxfId="191" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:J62 I64:J64">
-    <cfRule type="cellIs" dxfId="189" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:J63">
-    <cfRule type="cellIs" dxfId="187" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75:J76 I78:J78">
-    <cfRule type="cellIs" dxfId="185" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:J77">
-    <cfRule type="cellIs" dxfId="183" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:J90 I92:J92">
-    <cfRule type="cellIs" dxfId="181" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100:H103">
-    <cfRule type="cellIs" dxfId="179" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="177" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H36">
-    <cfRule type="cellIs" dxfId="175" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="173" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84:H92">
-    <cfRule type="cellIs" dxfId="171" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:H80 H82">
-    <cfRule type="cellIs" dxfId="169" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="167" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H66">
-    <cfRule type="cellIs" dxfId="165" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="163" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49277,10 +49385,11 @@
     <hyperlink ref="L63" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-698"/>
     <hyperlink ref="L77" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-698"/>
     <hyperlink ref="L91" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-698"/>
+    <hyperlink ref="I103" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-2555"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
-  <drawing r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -49316,9 +49425,9 @@
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -52606,354 +52715,354 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:IX2 B2:J2 K1:M2 K4:M6 K21:M21 K81:M81 K7:L9 M14:M20 K10:K11 K22 M22:M23 K67:M67 K63:M64 K62 M62 K65:K66 M65:M66 K68 M68 K69:M76 K77:K78 M77:M78 K83:M88 K82 M82 K89 M89 K24:M61 K90:M123 K150:M1048576 K131:M148">
-    <cfRule type="cellIs" dxfId="161" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="130" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="131" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124:M129 K130 M130 K149 M149">
-    <cfRule type="cellIs" dxfId="159" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="128" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="129" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 N3:IX3">
-    <cfRule type="cellIs" dxfId="157" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="122" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="123" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:J3">
-    <cfRule type="cellIs" dxfId="155" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="124" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="125" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:M3">
-    <cfRule type="cellIs" dxfId="153" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="120" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="121" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:M79 M80">
-    <cfRule type="cellIs" dxfId="151" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="100" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="101" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="149" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80">
-    <cfRule type="cellIs" dxfId="147" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K20">
-    <cfRule type="cellIs" dxfId="145" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H41 H57:H73">
-    <cfRule type="cellIs" dxfId="143" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H88">
-    <cfRule type="cellIs" dxfId="141" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="139" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="137" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="135" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="133" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="131" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="129" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="127" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="125" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="123" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="121" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="119" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="117" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="115" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="113" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="111" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110:H115">
-    <cfRule type="cellIs" dxfId="109" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="107" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="cellIs" dxfId="105" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="103" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H44">
-    <cfRule type="cellIs" dxfId="101" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H53">
-    <cfRule type="cellIs" dxfId="99" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:H56">
-    <cfRule type="cellIs" dxfId="97" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H108">
-    <cfRule type="cellIs" dxfId="95" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H123">
-    <cfRule type="cellIs" dxfId="93" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124:H129">
-    <cfRule type="cellIs" dxfId="91" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130:H141">
-    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="85" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="cellIs" dxfId="83" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H147">
-    <cfRule type="cellIs" dxfId="81" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="79" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149:H150">
-    <cfRule type="cellIs" dxfId="77" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H154:H159">
-    <cfRule type="cellIs" dxfId="75" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
